--- a/docs/comp_sub_dates_2023-24_.xlsx
+++ b/docs/comp_sub_dates_2023-24_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F382FAEA-9292-480D-83A9-D30764260248}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE25F6D2-9B06-4698-A2FD-C2329B314A87}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="169">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -205,12 +205,18 @@
     <t>Warren</t>
   </si>
   <si>
+    <t>Final Cisco Exam AE1</t>
+  </si>
+  <si>
     <t>COM413 Network Applications</t>
   </si>
   <si>
     <t>Neville</t>
   </si>
   <si>
+    <t>Final Cisco Skills Exam AE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">COM427 Principles and Methods of Data Analysis  (Apprentice only module) </t>
   </si>
   <si>
@@ -241,6 +247,9 @@
     <t>COM515 Enterprise Networks</t>
   </si>
   <si>
+    <t>Bode</t>
+  </si>
+  <si>
     <t>COM516 Network Implementation</t>
   </si>
   <si>
@@ -265,10 +274,16 @@
     <t>Anthony</t>
   </si>
   <si>
-    <t>COM621 19/1/24</t>
+    <t>COM520 not running Sem 1</t>
   </si>
   <si>
     <t>COM521 Ethical Hacking and Pen Testing</t>
+  </si>
+  <si>
+    <t>AE1 MCA Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE2 Report </t>
   </si>
   <si>
     <t>COM526 Introduction to AI</t>
@@ -316,6 +331,9 @@
     <t>COM612 Internet of Things (UG Option)</t>
   </si>
   <si>
+    <t xml:space="preserve">AE1 Report </t>
+  </si>
+  <si>
     <t xml:space="preserve">COM613 CyberOps </t>
   </si>
   <si>
@@ -337,6 +355,9 @@
     <t>COM621 UX Strategies (Option Digital Design &amp; Web)</t>
   </si>
   <si>
+    <t>AE1 100% Report</t>
+  </si>
+  <si>
     <t>COM623 Contemporary Web Apps (UG Option Computing &amp; core Digi Design)</t>
   </si>
   <si>
@@ -376,9 +397,6 @@
     <t>COM414 Routing and Switching</t>
   </si>
   <si>
-    <t>Bode/Warren</t>
-  </si>
-  <si>
     <t>COM522 Threat Intelligence Analysis</t>
   </si>
   <si>
@@ -430,9 +448,6 @@
     <t>Week 15</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -473,9 +488,6 @@
   </si>
   <si>
     <t>COM716 Security &amp; Ethical Hacking</t>
-  </si>
-  <si>
-    <t>Bode</t>
   </si>
   <si>
     <t>COM720 Digital Design Fundamentals</t>
@@ -602,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +767,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -854,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="96">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2064,6 +2083,202 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,7 +2287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2083,8 +2298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2096,7 +2309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2132,19 +2344,12 @@
     <xf numFmtId="16" fontId="1" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2279,10 +2484,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2303,7 +2504,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,9 +2571,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,7 +2631,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2445,7 +2641,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,7 +2654,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,27 +2726,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2572,43 +2757,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2624,9 +2778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2643,8 +2794,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2690,8 +2839,6 @@
     <xf numFmtId="16" fontId="1" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,19 +2906,263 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2805,10 +3196,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3036,9 +3430,12 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3062,6 +3459,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3111,7 +3511,38 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3444,8 +3875,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -3470,483 +3901,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="290" t="s">
+      <c r="B1" s="331"/>
+      <c r="C1" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="288" t="s">
+      <c r="D1" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="292" t="s">
+      <c r="Q1" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29.1" customHeight="1" thickBot="1">
-      <c r="A2" s="286"/>
-      <c r="B2" s="287"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="15">
+    <row r="2" spans="1:21" ht="29.1" customHeight="1">
+      <c r="A2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="12">
         <v>45198</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>45175</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>45212</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>45219</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>45226</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>45233</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="13">
         <v>45240</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="13">
         <v>45247</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="13">
         <v>45254</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="13">
         <v>45261</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="13">
         <v>45268</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="315">
         <v>45275</v>
       </c>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="23">
+      <c r="Q2" s="339"/>
+      <c r="R2" s="317">
         <v>44938</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="21">
         <v>44945</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="8">
+    <row r="3" spans="1:21" ht="16.5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="32" t="s">
+      <c r="E3" s="319"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
+      <c r="N3" s="320"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="8">
+      <c r="Q3" s="339"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="323"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="27" t="s">
+      <c r="E4" s="292"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="293"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="28"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A5" s="19">
+      <c r="S4" s="295"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="41">
         <v>1</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="297"/>
-      <c r="B6" s="298"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="299"/>
-      <c r="O6" s="299"/>
-      <c r="P6" s="299"/>
-      <c r="Q6" s="298"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="300"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="325"/>
+      <c r="S5" s="257"/>
+    </row>
+    <row r="6" spans="1:21" ht="27.75" customHeight="1">
+      <c r="A6" s="344"/>
+      <c r="B6" s="345"/>
+      <c r="C6" s="345"/>
+      <c r="D6" s="346"/>
+      <c r="E6" s="346"/>
+      <c r="F6" s="346"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="346"/>
+      <c r="L6" s="346"/>
+      <c r="M6" s="346"/>
+      <c r="N6" s="346"/>
+      <c r="O6" s="346"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="347"/>
     </row>
     <row r="7" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="301" t="s">
+      <c r="A7" s="350"/>
+      <c r="B7" s="351"/>
+      <c r="C7" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="288" t="s">
+      <c r="D7" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="294" t="s">
+      <c r="O7" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="S7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="67" t="s">
+      <c r="T7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A8" s="305"/>
-      <c r="B8" s="306"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="39">
+      <c r="A8" s="352"/>
+      <c r="B8" s="353"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="29">
         <v>44952</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="28">
         <v>44959</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="28">
         <v>44966</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="28">
         <v>44973</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="28">
         <v>44980</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="28">
         <v>44986</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="28">
         <v>44993</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="28">
         <v>45000</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="28">
         <v>45007</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="30">
         <v>45014</v>
       </c>
-      <c r="O8" s="295"/>
-      <c r="P8" s="44">
+      <c r="O8" s="342"/>
+      <c r="P8" s="34">
         <v>45035</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="35">
         <v>45042</v>
       </c>
-      <c r="R8" s="58">
+      <c r="R8" s="48">
         <v>45049</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="50">
         <v>45056</v>
       </c>
-      <c r="T8" s="68">
+      <c r="T8" s="58">
         <v>45063</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="54">
         <v>45070</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A9" s="176">
+      <c r="A9" s="159">
         <v>4</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="161">
         <v>2</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="E9" s="292"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="295"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47" t="s">
+      <c r="N9" s="284"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="65"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="55"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="46">
         <v>2</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="269" t="s">
+      <c r="E10" s="292"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="295"/>
-      <c r="P10" s="201" t="s">
+      <c r="O10" s="342"/>
+      <c r="P10" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="65"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="47">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="296"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="66"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="275"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="56"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="281" t="s">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="327" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="282"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="328"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T14" s="282"/>
+      <c r="T14" s="328"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T15" s="282"/>
+      <c r="T15" s="328"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T16" s="282"/>
+      <c r="T16" s="328"/>
     </row>
     <row r="17" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T17" s="282"/>
+      <c r="T17" s="328"/>
     </row>
     <row r="18" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T18" s="282"/>
+      <c r="T18" s="328"/>
     </row>
     <row r="19" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T19" s="282"/>
+      <c r="T19" s="328"/>
     </row>
     <row r="20" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T20" s="282"/>
+      <c r="T20" s="328"/>
     </row>
     <row r="21" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T21" s="282"/>
+      <c r="T21" s="328"/>
     </row>
     <row r="22" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T22" s="282"/>
+      <c r="T22" s="328"/>
     </row>
     <row r="23" spans="20:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="T23" s="283"/>
+      <c r="T23" s="329"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3978,9 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488AC5A-058D-400E-9940-EA3004BDD6BC}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3996,2149 +4426,2161 @@
     <col min="18" max="18" width="12.75" customWidth="1"/>
     <col min="19" max="19" width="14.875" customWidth="1"/>
     <col min="20" max="20" width="13.375" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="21" max="21" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="318"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
+      <c r="R1" s="364"/>
+      <c r="S1" s="365"/>
     </row>
     <row r="2" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A2" s="319"/>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="321"/>
+      <c r="A2" s="366"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
+      <c r="S2" s="368"/>
     </row>
     <row r="3" spans="1:19" ht="49.5" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="102" t="s">
+      <c r="M3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="102" t="s">
+      <c r="O3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="336" t="s">
+      <c r="Q3" s="383" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="130">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="116">
         <v>45198</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="120">
         <v>45175</v>
       </c>
-      <c r="G4" s="134">
+      <c r="G4" s="120">
         <v>45212</v>
       </c>
-      <c r="H4" s="134">
+      <c r="H4" s="120">
         <v>45219</v>
       </c>
-      <c r="I4" s="134">
+      <c r="I4" s="120">
         <v>45226</v>
       </c>
-      <c r="J4" s="134">
+      <c r="J4" s="120">
         <v>45233</v>
       </c>
-      <c r="K4" s="134">
+      <c r="K4" s="120">
         <v>45240</v>
       </c>
-      <c r="L4" s="134">
+      <c r="L4" s="120">
         <v>45247</v>
       </c>
-      <c r="M4" s="134">
+      <c r="M4" s="120">
         <v>45254</v>
       </c>
-      <c r="N4" s="134">
+      <c r="N4" s="120">
         <v>45261</v>
       </c>
-      <c r="O4" s="134">
+      <c r="O4" s="120">
         <v>45268</v>
       </c>
-      <c r="P4" s="135">
+      <c r="P4" s="121">
         <v>45275</v>
       </c>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="130">
+      <c r="Q4" s="384"/>
+      <c r="R4" s="116">
         <v>44938</v>
       </c>
-      <c r="S4" s="135">
+      <c r="S4" s="121">
         <v>44945</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="71">
+      <c r="A5" s="61">
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="97">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="337"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="190"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="384"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="172"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="74">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="193"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="384"/>
+      <c r="R6" s="326" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="174"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="74">
+      <c r="A7" s="64">
         <v>3</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="165"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="384"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="326" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="61">
+        <v>4</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="68">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="384"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="174"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="64">
+        <v>5</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="384"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="174"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A10" s="64">
+        <v>6</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="234" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="384"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="174"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="104">
+        <v>7</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="96">
+        <v>1</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="168"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="384"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="176"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="388" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="389"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="390"/>
+      <c r="Q12" s="384"/>
+      <c r="R12" s="372"/>
+      <c r="S12" s="373"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="70">
+        <v>8</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="105">
+        <v>1</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="243"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="384"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="172"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="73">
+        <v>9</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="75">
+        <v>1</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="245"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="384"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="174"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="70">
+        <v>10</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="75">
+        <v>1</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="245"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="246"/>
+      <c r="Q15" s="384"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="174"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="73">
+        <v>11</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="75">
+        <v>1</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="245"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="384"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="174"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="70">
+        <v>12</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="75">
+        <v>1</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="245"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="384"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="174"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="73">
+        <v>13</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="75">
+        <v>1</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="245"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="384"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="174"/>
+    </row>
+    <row r="19" spans="1:20" s="241" customFormat="1">
+      <c r="A19" s="235">
+        <v>14</v>
+      </c>
+      <c r="B19" s="236" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="237">
+        <v>1</v>
+      </c>
+      <c r="D19" s="238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="279"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="281"/>
+      <c r="Q19" s="384"/>
+      <c r="R19" s="239"/>
+      <c r="S19" s="240" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16.5">
+      <c r="A20" s="73">
+        <v>15</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="75">
+        <v>1</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="245"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="246" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="384"/>
+      <c r="R20" s="173" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="174"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="70">
+        <v>16</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="75">
+        <v>1</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="245"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="384"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="174"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="82">
+        <v>17</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="99">
+        <v>1</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="247"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="248"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="248"/>
+      <c r="O22" s="248"/>
+      <c r="P22" s="249"/>
+      <c r="Q22" s="384"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="176"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="385" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="386"/>
+      <c r="C23" s="386"/>
+      <c r="D23" s="386"/>
+      <c r="E23" s="386"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="386"/>
+      <c r="H23" s="386"/>
+      <c r="I23" s="386"/>
+      <c r="J23" s="386"/>
+      <c r="K23" s="386"/>
+      <c r="L23" s="386"/>
+      <c r="M23" s="386"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="386"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="384"/>
+      <c r="R23" s="374"/>
+      <c r="S23" s="375"/>
+      <c r="T23" s="380" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="42.75" customHeight="1">
+      <c r="A24" s="109">
+        <v>18</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="111">
+        <v>1</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="278"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="384"/>
+      <c r="R24" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="172"/>
+      <c r="T24" s="381"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="102">
+        <v>1</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="250"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="384"/>
+      <c r="R25" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="174"/>
+      <c r="T25" s="381"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="102">
+        <v>1</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="250"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="384"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="381"/>
+    </row>
+    <row r="27" spans="1:20" ht="17.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="102">
+        <v>1</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="250"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="384"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="381"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="103">
+        <v>1</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="250"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="178"/>
+      <c r="P28" s="246"/>
+      <c r="Q28" s="384"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="381"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="102">
+        <v>1</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="250"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="246"/>
+      <c r="Q29" s="384"/>
+      <c r="R29" s="254"/>
+      <c r="S29" s="255"/>
+      <c r="T29" s="381"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="103">
+        <v>1</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="250"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="246"/>
+      <c r="Q30" s="384"/>
+      <c r="R30" s="254"/>
+      <c r="S30" s="255"/>
+      <c r="T30" s="381"/>
+    </row>
+    <row r="31" spans="1:20" s="241" customFormat="1" ht="16.5">
+      <c r="A31" s="443">
+        <v>25</v>
+      </c>
+      <c r="B31" s="444" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="445">
+        <v>1</v>
+      </c>
+      <c r="D31" s="445" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="446"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="281"/>
+      <c r="Q31" s="384"/>
+      <c r="R31" s="279"/>
+      <c r="S31" s="281" t="s">
+        <v>91</v>
+      </c>
+      <c r="T31" s="381"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="103">
+        <v>1</v>
+      </c>
+      <c r="D32" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="250"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="178"/>
+      <c r="P32" s="246"/>
+      <c r="Q32" s="384"/>
+      <c r="R32" s="254"/>
+      <c r="S32" s="255"/>
+      <c r="T32" s="381"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="102">
+        <v>1</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="250"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="246"/>
+      <c r="Q33" s="384"/>
+      <c r="R33" s="254"/>
+      <c r="S33" s="255"/>
+      <c r="T33" s="381"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="16">
+        <v>28</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="113">
+        <v>1</v>
+      </c>
+      <c r="D34" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="251"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="252"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="252"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="253"/>
+      <c r="Q34" s="384"/>
+      <c r="R34" s="256"/>
+      <c r="S34" s="257"/>
+      <c r="T34" s="382"/>
+    </row>
+    <row r="35" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A35" s="354" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="355"/>
+      <c r="C35" s="355"/>
+      <c r="D35" s="356"/>
+      <c r="E35" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="341" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="21.75" customHeight="1">
+      <c r="A36" s="357" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="358"/>
+      <c r="C36" s="358"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="92">
+        <v>44952</v>
+      </c>
+      <c r="F36" s="93">
+        <v>44959</v>
+      </c>
+      <c r="G36" s="93">
+        <v>44966</v>
+      </c>
+      <c r="H36" s="93">
+        <v>44973</v>
+      </c>
+      <c r="I36" s="93">
+        <v>44980</v>
+      </c>
+      <c r="J36" s="93">
+        <v>44986</v>
+      </c>
+      <c r="K36" s="93">
+        <v>44993</v>
+      </c>
+      <c r="L36" s="93">
+        <v>45000</v>
+      </c>
+      <c r="M36" s="93">
+        <v>45007</v>
+      </c>
+      <c r="N36" s="94">
+        <v>45014</v>
+      </c>
+      <c r="O36" s="342"/>
+      <c r="P36" s="92">
+        <v>45035</v>
+      </c>
+      <c r="Q36" s="95">
+        <v>45042</v>
+      </c>
+      <c r="R36" s="116">
+        <v>45049</v>
+      </c>
+      <c r="S36" s="117">
+        <v>45056</v>
+      </c>
+      <c r="T36" s="118">
+        <v>45063</v>
+      </c>
+      <c r="U36" s="119">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="61">
+        <v>29</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="97">
+        <v>2</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="243"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="244"/>
+      <c r="O37" s="342"/>
+      <c r="P37" s="179"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="258"/>
+      <c r="S37" s="259"/>
+      <c r="T37" s="259"/>
+      <c r="U37" s="260"/>
+    </row>
+    <row r="38" spans="1:21" ht="61.5" customHeight="1">
+      <c r="A38" s="64">
+        <v>30</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="63">
+        <v>2</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="245"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="246"/>
+      <c r="O38" s="342"/>
+      <c r="P38" s="242" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="254"/>
+      <c r="S38" s="261"/>
+      <c r="T38" s="261"/>
+      <c r="U38" s="255"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="61">
+        <v>31</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="63">
+        <v>2</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="245"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="246"/>
+      <c r="O39" s="342"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="254"/>
+      <c r="S39" s="261"/>
+      <c r="T39" s="261"/>
+      <c r="U39" s="255"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="64">
+        <v>32</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="63">
+        <v>2</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="245"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="178"/>
+      <c r="M40" s="178"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="342"/>
+      <c r="P40" s="165"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="254"/>
+      <c r="S40" s="261"/>
+      <c r="T40" s="261"/>
+      <c r="U40" s="255"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="61">
+        <v>33</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="96">
+        <v>2</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="247"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="248"/>
+      <c r="I41" s="248"/>
+      <c r="J41" s="248"/>
+      <c r="K41" s="248"/>
+      <c r="L41" s="248"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="342"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="170"/>
+      <c r="R41" s="262"/>
+      <c r="S41" s="263"/>
+      <c r="T41" s="263"/>
+      <c r="U41" s="264"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="377" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="378"/>
+      <c r="C42" s="378"/>
+      <c r="D42" s="378"/>
+      <c r="E42" s="378"/>
+      <c r="F42" s="378"/>
+      <c r="G42" s="378"/>
+      <c r="H42" s="378"/>
+      <c r="I42" s="378"/>
+      <c r="J42" s="378"/>
+      <c r="K42" s="378"/>
+      <c r="L42" s="378"/>
+      <c r="M42" s="378"/>
+      <c r="N42" s="379"/>
+      <c r="O42" s="342"/>
+      <c r="P42" s="372"/>
+      <c r="Q42" s="376"/>
+      <c r="R42" s="376"/>
+      <c r="S42" s="376"/>
+      <c r="T42" s="376"/>
+      <c r="U42" s="373"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="70">
+        <v>34</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="80">
+        <v>2</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="162"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="342"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="R43" s="258"/>
+      <c r="S43" s="259"/>
+      <c r="T43" s="259"/>
+      <c r="U43" s="260"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="73">
+        <v>35</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="75">
+        <v>2</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="165"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="167"/>
+      <c r="O44" s="342"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="254"/>
+      <c r="S44" s="261"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="255"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="70">
+        <v>36</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="80">
+        <v>2</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="165"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="167"/>
+      <c r="O45" s="342"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="167"/>
+      <c r="R45" s="254"/>
+      <c r="S45" s="261"/>
+      <c r="T45" s="261"/>
+      <c r="U45" s="255"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="73">
+        <v>37</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="75">
+        <v>2</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="165"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="167"/>
+      <c r="O46" s="342"/>
+      <c r="P46" s="165"/>
+      <c r="Q46" s="167"/>
+      <c r="R46" s="254"/>
+      <c r="S46" s="261"/>
+      <c r="T46" s="261"/>
+      <c r="U46" s="255"/>
+    </row>
+    <row r="47" spans="1:21" ht="48.75">
+      <c r="A47" s="70">
+        <v>38</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="75">
+        <v>2</v>
+      </c>
+      <c r="D47" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="165"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="342"/>
+      <c r="P47" s="165"/>
+      <c r="Q47" s="167"/>
+      <c r="R47" s="254"/>
+      <c r="S47" s="261" t="s">
+        <v>111</v>
+      </c>
+      <c r="T47" s="261"/>
+      <c r="U47" s="255"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="73">
+        <v>39</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="75">
+        <v>2</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="165"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="166"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="342"/>
+      <c r="P48" s="165"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="254"/>
+      <c r="S48" s="261"/>
+      <c r="T48" s="261"/>
+      <c r="U48" s="255"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="70">
+        <v>40</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="99">
+        <v>2</v>
+      </c>
+      <c r="D49" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="168"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="169"/>
+      <c r="M49" s="169"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="342"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="170"/>
+      <c r="R49" s="262"/>
+      <c r="S49" s="263"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="264"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="369" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="370"/>
+      <c r="C50" s="370"/>
+      <c r="D50" s="370"/>
+      <c r="E50" s="370"/>
+      <c r="F50" s="370"/>
+      <c r="G50" s="370"/>
+      <c r="H50" s="370"/>
+      <c r="I50" s="370"/>
+      <c r="J50" s="370"/>
+      <c r="K50" s="370"/>
+      <c r="L50" s="370"/>
+      <c r="M50" s="370"/>
+      <c r="N50" s="371"/>
+      <c r="O50" s="342"/>
+      <c r="P50" s="391"/>
+      <c r="Q50" s="392"/>
+      <c r="R50" s="392"/>
+      <c r="S50" s="392"/>
+      <c r="T50" s="392"/>
+      <c r="U50" s="393"/>
+    </row>
+    <row r="51" spans="1:21" s="241" customFormat="1" ht="32.25">
+      <c r="A51" s="235">
+        <v>41</v>
+      </c>
+      <c r="B51" s="447" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="448">
+        <v>2</v>
+      </c>
+      <c r="D51" s="449" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="450"/>
+      <c r="F51" s="451"/>
+      <c r="G51" s="451"/>
+      <c r="H51" s="451"/>
+      <c r="I51" s="451"/>
+      <c r="J51" s="451"/>
+      <c r="K51" s="451"/>
+      <c r="L51" s="451"/>
+      <c r="M51" s="451"/>
+      <c r="N51" s="452"/>
+      <c r="O51" s="342"/>
+      <c r="P51" s="453"/>
+      <c r="Q51" s="453"/>
+      <c r="R51" s="280"/>
+      <c r="S51" s="454"/>
+      <c r="T51" s="280"/>
+      <c r="U51" s="280" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="73">
+        <v>42</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="86">
+        <v>2</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="165"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="167"/>
+      <c r="O52" s="342"/>
+      <c r="P52" s="166"/>
+      <c r="Q52" s="166"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="261"/>
+      <c r="T52" s="261"/>
+      <c r="U52" s="261"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="70">
+        <v>43</v>
+      </c>
+      <c r="B53" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="85">
+        <v>2</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="165"/>
+      <c r="F53" s="166"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="167"/>
+      <c r="O53" s="342"/>
+      <c r="P53" s="166"/>
+      <c r="Q53" s="166"/>
+      <c r="R53" s="261"/>
+      <c r="S53" s="261"/>
+      <c r="T53" s="261"/>
+      <c r="U53" s="261"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="73">
+        <v>44</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="87">
+        <v>2</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="165"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="166"/>
+      <c r="Q54" s="166"/>
+      <c r="R54" s="261"/>
+      <c r="S54" s="261"/>
+      <c r="T54" s="261"/>
+      <c r="U54" s="261"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="70">
+        <v>45</v>
+      </c>
+      <c r="B55" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="115">
+        <v>2</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="342"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="263"/>
+      <c r="S55" s="263"/>
+      <c r="T55" s="263"/>
+      <c r="U55" s="261"/>
+    </row>
+    <row r="56" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A56" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="R56" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="S56" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="T56" s="91"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A57" s="360" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="361"/>
+      <c r="C57" s="361"/>
+      <c r="D57" s="362"/>
+      <c r="E57" s="116">
+        <v>45077</v>
+      </c>
+      <c r="F57" s="120">
+        <v>45084</v>
+      </c>
+      <c r="G57" s="120">
+        <v>45091</v>
+      </c>
+      <c r="H57" s="120">
+        <v>45098</v>
+      </c>
+      <c r="I57" s="120">
+        <v>45105</v>
+      </c>
+      <c r="J57" s="120">
+        <v>45112</v>
+      </c>
+      <c r="K57" s="120">
+        <v>45119</v>
+      </c>
+      <c r="L57" s="120">
+        <v>45126</v>
+      </c>
+      <c r="M57" s="120">
+        <v>45133</v>
+      </c>
+      <c r="N57" s="120">
+        <v>45140</v>
+      </c>
+      <c r="O57" s="120">
+        <v>45147</v>
+      </c>
+      <c r="P57" s="120">
+        <v>45154</v>
+      </c>
+      <c r="Q57" s="120">
+        <v>45161</v>
+      </c>
+      <c r="R57" s="120">
+        <v>45168</v>
+      </c>
+      <c r="S57" s="117">
+        <v>45175</v>
+      </c>
+      <c r="T57" s="158">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="150">
+        <v>46</v>
+      </c>
+      <c r="B58" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="152">
+        <v>3</v>
+      </c>
+      <c r="D58" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="265"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="265"/>
+      <c r="K58" s="265"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="265"/>
+      <c r="O58" s="265"/>
+      <c r="P58" s="265"/>
+      <c r="Q58" s="266"/>
+      <c r="R58" s="266"/>
+      <c r="S58" s="266"/>
+      <c r="T58" s="267"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.5">
+      <c r="A59" s="153">
         <v>47</v>
       </c>
-      <c r="C7" s="73">
-        <v>1</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="B59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="101">
+        <v>3</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="268" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="178"/>
+      <c r="G59" s="178"/>
+      <c r="H59" s="178"/>
+      <c r="I59" s="178"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="178"/>
+      <c r="M59" s="178"/>
+      <c r="N59" s="178"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="178"/>
+      <c r="Q59" s="261"/>
+      <c r="R59" s="261"/>
+      <c r="S59" s="261"/>
+      <c r="T59" s="255"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="153">
         <v>48</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="337"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="193"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="71">
-        <v>4</v>
-      </c>
-      <c r="B8" s="77" t="s">
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="178"/>
+      <c r="F60" s="178"/>
+      <c r="G60" s="178"/>
+      <c r="H60" s="178"/>
+      <c r="I60" s="178"/>
+      <c r="J60" s="178"/>
+      <c r="K60" s="178"/>
+      <c r="L60" s="178"/>
+      <c r="M60" s="178"/>
+      <c r="N60" s="178"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="178"/>
+      <c r="Q60" s="261"/>
+      <c r="R60" s="261"/>
+      <c r="S60" s="261"/>
+      <c r="T60" s="255"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.5">
+      <c r="A61" s="153">
         <v>49</v>
       </c>
-      <c r="C8" s="78">
-        <v>1</v>
-      </c>
-      <c r="D8" s="79" t="s">
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="100">
+        <v>3</v>
+      </c>
+      <c r="D61" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="268" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="178"/>
+      <c r="G61" s="178"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="178"/>
+      <c r="M61" s="178"/>
+      <c r="N61" s="178"/>
+      <c r="O61" s="178"/>
+      <c r="P61" s="178"/>
+      <c r="Q61" s="261"/>
+      <c r="R61" s="261"/>
+      <c r="S61" s="261"/>
+      <c r="T61" s="255"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="154">
         <v>50</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="337"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="193"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="74">
-        <v>5</v>
-      </c>
-      <c r="B9" s="75" t="s">
+      <c r="B62" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="156">
+        <v>3</v>
+      </c>
+      <c r="D62" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="252"/>
+      <c r="F62" s="252"/>
+      <c r="G62" s="252"/>
+      <c r="H62" s="252"/>
+      <c r="I62" s="252"/>
+      <c r="J62" s="252"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="252"/>
+      <c r="O62" s="252"/>
+      <c r="P62" s="252"/>
+      <c r="Q62" s="269"/>
+      <c r="R62" s="269"/>
+      <c r="S62" s="269"/>
+      <c r="T62" s="270"/>
+    </row>
+    <row r="63" spans="1:21" ht="33.75" customHeight="1">
+      <c r="A63" s="354" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="355"/>
+      <c r="C63" s="355"/>
+      <c r="D63" s="355"/>
+      <c r="E63" s="355"/>
+      <c r="F63" s="355"/>
+      <c r="G63" s="355"/>
+      <c r="H63" s="355"/>
+      <c r="I63" s="355"/>
+      <c r="J63" s="355"/>
+      <c r="K63" s="355"/>
+      <c r="L63" s="355"/>
+      <c r="M63" s="355"/>
+      <c r="N63" s="355"/>
+      <c r="O63" s="355"/>
+      <c r="P63" s="355"/>
+      <c r="Q63" s="355"/>
+      <c r="R63" s="355"/>
+      <c r="S63" s="355"/>
+      <c r="T63" s="356"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="135">
         <v>51</v>
       </c>
-      <c r="C9" s="73">
-        <v>1</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="337"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="193"/>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A10" s="74">
-        <v>6</v>
-      </c>
-      <c r="B10" s="75" t="s">
+      <c r="B64" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="137">
+        <v>3</v>
+      </c>
+      <c r="D64" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="73">
-        <v>1</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="270" t="s">
+      <c r="E64" s="271"/>
+      <c r="F64" s="271"/>
+      <c r="G64" s="271"/>
+      <c r="H64" s="271"/>
+      <c r="I64" s="271"/>
+      <c r="J64" s="271"/>
+      <c r="K64" s="271"/>
+      <c r="L64" s="271"/>
+      <c r="M64" s="271"/>
+      <c r="N64" s="271"/>
+      <c r="O64" s="271"/>
+      <c r="P64" s="271"/>
+      <c r="Q64" s="271"/>
+      <c r="R64" s="271"/>
+      <c r="S64" s="272"/>
+      <c r="T64" s="273"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="139">
+        <v>52</v>
+      </c>
+      <c r="B65" s="140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="141">
+        <v>3</v>
+      </c>
+      <c r="D65" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="274"/>
+      <c r="T65" s="275"/>
+    </row>
+    <row r="66" spans="1:20" ht="33" customHeight="1">
+      <c r="A66" s="369" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="370"/>
+      <c r="C66" s="370"/>
+      <c r="D66" s="370"/>
+      <c r="E66" s="370"/>
+      <c r="F66" s="370"/>
+      <c r="G66" s="370"/>
+      <c r="H66" s="370"/>
+      <c r="I66" s="370"/>
+      <c r="J66" s="370"/>
+      <c r="K66" s="370"/>
+      <c r="L66" s="370"/>
+      <c r="M66" s="370"/>
+      <c r="N66" s="370"/>
+      <c r="O66" s="370"/>
+      <c r="P66" s="370"/>
+      <c r="Q66" s="370"/>
+      <c r="R66" s="370"/>
+      <c r="S66" s="370"/>
+      <c r="T66" s="371"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="144">
         <v>53</v>
       </c>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="337"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="193"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="117">
-        <v>7</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="109">
-        <v>1</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="196"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="341" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="342"/>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="342"/>
-      <c r="I12" s="342"/>
-      <c r="J12" s="342"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="342"/>
-      <c r="M12" s="342"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="342"/>
-      <c r="P12" s="343"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="325"/>
-      <c r="S12" s="326"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="80">
-        <v>8</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="118">
-        <v>1</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="190"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="83">
-        <v>9</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="85">
-        <v>1</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="337"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="193"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="80">
-        <v>10</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="85">
-        <v>1</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="337"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="193"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="83">
-        <v>11</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="85">
-        <v>1</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="193"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="80">
-        <v>12</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="85">
-        <v>1</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="182"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="193"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="83">
-        <v>13</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="85">
-        <v>1</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="337"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="193"/>
-    </row>
-    <row r="19" spans="1:20" s="278" customFormat="1">
-      <c r="A19" s="271">
-        <v>14</v>
-      </c>
-      <c r="B19" s="272" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="273">
-        <v>1</v>
-      </c>
-      <c r="D19" s="274" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="275"/>
-      <c r="F19" s="276"/>
-      <c r="G19" s="276"/>
-      <c r="H19" s="276"/>
-      <c r="I19" s="276"/>
-      <c r="J19" s="276"/>
-      <c r="K19" s="276"/>
-      <c r="L19" s="276"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="276"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="337"/>
-      <c r="R19" s="275"/>
-      <c r="S19" s="277" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="83">
-        <v>15</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="85">
-        <v>1</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="182"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="337"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="193"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="80">
-        <v>16</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="85">
-        <v>1</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="337"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="193"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="92">
-        <v>17</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="112">
-        <v>1</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="185"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="187"/>
-      <c r="Q22" s="337"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="196"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="338" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="339"/>
-      <c r="C23" s="339"/>
-      <c r="D23" s="339"/>
-      <c r="E23" s="339"/>
-      <c r="F23" s="339"/>
-      <c r="G23" s="339"/>
-      <c r="H23" s="339"/>
-      <c r="I23" s="339"/>
-      <c r="J23" s="339"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="339"/>
-      <c r="N23" s="339"/>
-      <c r="O23" s="339"/>
-      <c r="P23" s="340"/>
-      <c r="Q23" s="337"/>
-      <c r="R23" s="327"/>
-      <c r="S23" s="328"/>
-      <c r="T23" s="333" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A24" s="122">
-        <v>18</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="124">
-        <v>1</v>
-      </c>
-      <c r="D24" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="209"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="337"/>
-      <c r="R24" s="188" t="s">
-        <v>76</v>
-      </c>
-      <c r="S24" s="190"/>
-      <c r="T24" s="334"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="8">
+      <c r="B67" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="146">
+        <v>3</v>
+      </c>
+      <c r="D67" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="115">
-        <v>1</v>
-      </c>
-      <c r="D25" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="210"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="337"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="334"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="8">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="115">
-        <v>1</v>
-      </c>
-      <c r="D26" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="210"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="337"/>
-      <c r="R26" s="191"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="334"/>
-    </row>
-    <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="8">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="115">
-        <v>1</v>
-      </c>
-      <c r="D27" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="210"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="337"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="334"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="8">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="116">
-        <v>1</v>
-      </c>
-      <c r="D28" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="210"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="337"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="334"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A29" s="8">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="115">
-        <v>1</v>
-      </c>
-      <c r="D29" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="210"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="337"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="334"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="8">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="116">
-        <v>1</v>
-      </c>
-      <c r="D30" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="210"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="337"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="193"/>
-      <c r="T30" s="334"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="8">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="115">
-        <v>1</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="210"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="337"/>
-      <c r="R31" s="191"/>
-      <c r="S31" s="193"/>
-      <c r="T31" s="334"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="8">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="116">
-        <v>1</v>
-      </c>
-      <c r="D32" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="210"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="337"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="334"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="8">
-        <v>27</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="115">
-        <v>1</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="210"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="337"/>
-      <c r="R33" s="191"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="334"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="19">
-        <v>28</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="126">
-        <v>1</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="212"/>
-      <c r="Q34" s="337"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="335"/>
-    </row>
-    <row r="35" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A35" s="307" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="308"/>
-      <c r="C35" s="308"/>
-      <c r="D35" s="309"/>
-      <c r="E35" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q35" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S35" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="U35" s="63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A36" s="310" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="311"/>
-      <c r="C36" s="311"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="105">
-        <v>44952</v>
-      </c>
-      <c r="F36" s="106">
-        <v>44959</v>
-      </c>
-      <c r="G36" s="106">
-        <v>44966</v>
-      </c>
-      <c r="H36" s="106">
-        <v>44973</v>
-      </c>
-      <c r="I36" s="106">
-        <v>44980</v>
-      </c>
-      <c r="J36" s="106">
-        <v>44986</v>
-      </c>
-      <c r="K36" s="106">
-        <v>44993</v>
-      </c>
-      <c r="L36" s="106">
-        <v>45000</v>
-      </c>
-      <c r="M36" s="106">
-        <v>45007</v>
-      </c>
-      <c r="N36" s="107">
-        <v>45014</v>
-      </c>
-      <c r="O36" s="295"/>
-      <c r="P36" s="105">
-        <v>45035</v>
-      </c>
-      <c r="Q36" s="108">
-        <v>45042</v>
-      </c>
-      <c r="R36" s="130">
-        <v>45049</v>
-      </c>
-      <c r="S36" s="131">
-        <v>45056</v>
-      </c>
-      <c r="T36" s="132">
-        <v>45063</v>
-      </c>
-      <c r="U36" s="133">
-        <v>45070</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="71">
-        <v>29</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="110">
-        <v>2</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="179"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="295"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="200"/>
-      <c r="R37" s="188"/>
-      <c r="S37" s="189"/>
-      <c r="T37" s="189"/>
-      <c r="U37" s="190"/>
-    </row>
-    <row r="38" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A38" s="74">
-        <v>30</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="73">
-        <v>2</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="182"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="184"/>
-      <c r="O38" s="295"/>
-      <c r="P38" s="280" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q38" s="202"/>
-      <c r="R38" s="191"/>
-      <c r="S38" s="192"/>
-      <c r="T38" s="192"/>
-      <c r="U38" s="193"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="71">
-        <v>31</v>
-      </c>
-      <c r="B39" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="73">
-        <v>2</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="182"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="295"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="202"/>
-      <c r="R39" s="191"/>
-      <c r="S39" s="192"/>
-      <c r="T39" s="192"/>
-      <c r="U39" s="193"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="74">
-        <v>32</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="73">
-        <v>2</v>
-      </c>
-      <c r="D40" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="182"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="183"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="184"/>
-      <c r="O40" s="295"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="184"/>
-      <c r="R40" s="191"/>
-      <c r="S40" s="192"/>
-      <c r="T40" s="192"/>
-      <c r="U40" s="193"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="71">
-        <v>33</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="109">
-        <v>2</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="185"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
-      <c r="L41" s="186"/>
-      <c r="M41" s="186"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="295"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="195"/>
-      <c r="T41" s="195"/>
-      <c r="U41" s="196"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="330" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="331"/>
-      <c r="C42" s="331"/>
-      <c r="D42" s="331"/>
-      <c r="E42" s="331"/>
-      <c r="F42" s="331"/>
-      <c r="G42" s="331"/>
-      <c r="H42" s="331"/>
-      <c r="I42" s="331"/>
-      <c r="J42" s="331"/>
-      <c r="K42" s="331"/>
-      <c r="L42" s="331"/>
-      <c r="M42" s="331"/>
-      <c r="N42" s="332"/>
-      <c r="O42" s="295"/>
-      <c r="P42" s="325"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="326"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="80">
-        <v>34</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="90">
-        <v>2</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="179"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="181"/>
-      <c r="O43" s="295"/>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="R43" s="188"/>
-      <c r="S43" s="189"/>
-      <c r="T43" s="189"/>
-      <c r="U43" s="190"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="83">
-        <v>35</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="85">
-        <v>2</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="182"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="183"/>
-      <c r="L44" s="183"/>
-      <c r="M44" s="183"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="295"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="191"/>
-      <c r="S44" s="192"/>
-      <c r="T44" s="192"/>
-      <c r="U44" s="193"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="80">
-        <v>36</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="90">
-        <v>2</v>
-      </c>
-      <c r="D45" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="182"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="183"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="295"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="184"/>
-      <c r="R45" s="191"/>
-      <c r="S45" s="192"/>
-      <c r="T45" s="192"/>
-      <c r="U45" s="193"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="83">
-        <v>37</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="85">
-        <v>2</v>
-      </c>
-      <c r="D46" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="182"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="183"/>
-      <c r="M46" s="183"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="295"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="184"/>
-      <c r="R46" s="191"/>
-      <c r="S46" s="192"/>
-      <c r="T46" s="192"/>
-      <c r="U46" s="193"/>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="80">
-        <v>38</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="85">
-        <v>2</v>
-      </c>
-      <c r="D47" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="182"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="183" t="s">
-        <v>104</v>
-      </c>
-      <c r="L47" s="183"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="295"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="184"/>
-      <c r="R47" s="191"/>
-      <c r="S47" s="192" t="s">
-        <v>105</v>
-      </c>
-      <c r="T47" s="192"/>
-      <c r="U47" s="193"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="83">
-        <v>39</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="85">
-        <v>2</v>
-      </c>
-      <c r="D48" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="182"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="184"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="184"/>
-      <c r="R48" s="191"/>
-      <c r="S48" s="192"/>
-      <c r="T48" s="192"/>
-      <c r="U48" s="193"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="80">
-        <v>40</v>
-      </c>
-      <c r="B49" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="112">
-        <v>2</v>
-      </c>
-      <c r="D49" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="185"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="295"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="194"/>
-      <c r="S49" s="195"/>
-      <c r="T49" s="195"/>
-      <c r="U49" s="196"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="322" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="323"/>
-      <c r="C50" s="323"/>
-      <c r="D50" s="323"/>
-      <c r="E50" s="323"/>
-      <c r="F50" s="323"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="323"/>
-      <c r="I50" s="323"/>
-      <c r="J50" s="323"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="323"/>
-      <c r="N50" s="324"/>
-      <c r="O50" s="295"/>
-      <c r="P50" s="344"/>
-      <c r="Q50" s="345"/>
-      <c r="R50" s="345"/>
-      <c r="S50" s="345"/>
-      <c r="T50" s="345"/>
-      <c r="U50" s="346"/>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="80">
-        <v>41</v>
-      </c>
-      <c r="B51" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="95">
-        <v>2</v>
-      </c>
-      <c r="D51" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="179"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="181"/>
-      <c r="O51" s="295"/>
-      <c r="P51" s="183"/>
-      <c r="Q51" s="183"/>
-      <c r="R51" s="192"/>
-      <c r="S51" s="279">
-        <v>1</v>
-      </c>
-      <c r="T51" s="192"/>
-      <c r="U51" s="192"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="83">
-        <v>42</v>
-      </c>
-      <c r="B52" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="98">
-        <v>2</v>
-      </c>
-      <c r="D52" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="182"/>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="183"/>
-      <c r="M52" s="183"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="295"/>
-      <c r="P52" s="183"/>
-      <c r="Q52" s="183"/>
-      <c r="R52" s="192"/>
-      <c r="S52" s="192"/>
-      <c r="T52" s="192"/>
-      <c r="U52" s="192"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="80">
-        <v>43</v>
-      </c>
-      <c r="B53" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="97">
-        <v>2</v>
-      </c>
-      <c r="D53" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="182"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="183"/>
-      <c r="K53" s="183"/>
-      <c r="L53" s="183"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="184"/>
-      <c r="O53" s="295"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="192"/>
-      <c r="S53" s="192"/>
-      <c r="T53" s="192"/>
-      <c r="U53" s="192"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="83">
-        <v>44</v>
-      </c>
-      <c r="B54" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="99">
-        <v>2</v>
-      </c>
-      <c r="D54" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="182"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="183"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="184"/>
-      <c r="O54" s="295"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="192"/>
-      <c r="S54" s="192"/>
-      <c r="T54" s="192"/>
-      <c r="U54" s="192"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="80">
-        <v>45</v>
-      </c>
-      <c r="B55" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="129">
-        <v>2</v>
-      </c>
-      <c r="D55" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="185"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="186"/>
-      <c r="M55" s="186"/>
-      <c r="N55" s="187"/>
-      <c r="O55" s="295"/>
-      <c r="P55" s="186"/>
-      <c r="Q55" s="186"/>
-      <c r="R55" s="195"/>
-      <c r="S55" s="195"/>
-      <c r="T55" s="195"/>
-      <c r="U55" s="192"/>
-    </row>
-    <row r="56" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A56" s="144" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="147" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="147" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="147" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="147" t="s">
-        <v>10</v>
-      </c>
-      <c r="M56" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" s="148" t="s">
-        <v>12</v>
-      </c>
-      <c r="O56" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q56" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="R56" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="S56" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="T56" s="103"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A57" s="313" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="314"/>
-      <c r="C57" s="314"/>
-      <c r="D57" s="315"/>
-      <c r="E57" s="130">
-        <v>45077</v>
-      </c>
-      <c r="F57" s="134">
-        <v>45084</v>
-      </c>
-      <c r="G57" s="134">
-        <v>45091</v>
-      </c>
-      <c r="H57" s="134">
-        <v>45098</v>
-      </c>
-      <c r="I57" s="134">
-        <v>45105</v>
-      </c>
-      <c r="J57" s="134">
-        <v>45112</v>
-      </c>
-      <c r="K57" s="134">
-        <v>45119</v>
-      </c>
-      <c r="L57" s="134">
-        <v>45126</v>
-      </c>
-      <c r="M57" s="134">
-        <v>45133</v>
-      </c>
-      <c r="N57" s="134">
-        <v>45140</v>
-      </c>
-      <c r="O57" s="134">
-        <v>45147</v>
-      </c>
-      <c r="P57" s="134">
-        <v>45154</v>
-      </c>
-      <c r="Q57" s="134">
-        <v>45161</v>
-      </c>
-      <c r="R57" s="134">
-        <v>45168</v>
-      </c>
-      <c r="S57" s="131">
-        <v>45175</v>
-      </c>
-      <c r="T57" s="175">
-        <v>45178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="167">
-        <v>46</v>
-      </c>
-      <c r="B58" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="169">
-        <v>3</v>
-      </c>
-      <c r="D58" s="169" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="203"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="203"/>
-      <c r="K58" s="203"/>
-      <c r="L58" s="203"/>
-      <c r="M58" s="203"/>
-      <c r="N58" s="203"/>
-      <c r="O58" s="203"/>
-      <c r="P58" s="203"/>
-      <c r="Q58" s="204"/>
-      <c r="R58" s="204"/>
-      <c r="S58" s="204"/>
-      <c r="T58" s="205"/>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="170">
-        <v>47</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="114">
-        <v>3</v>
-      </c>
-      <c r="D59" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="183"/>
-      <c r="K59" s="183"/>
-      <c r="L59" s="183"/>
-      <c r="M59" s="183"/>
-      <c r="N59" s="183"/>
-      <c r="O59" s="183"/>
-      <c r="P59" s="183"/>
-      <c r="Q59" s="192"/>
-      <c r="R59" s="192"/>
-      <c r="S59" s="192"/>
-      <c r="T59" s="193"/>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="170">
-        <v>48</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="8">
-        <v>3</v>
-      </c>
-      <c r="D60" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="183"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="183"/>
-      <c r="I60" s="183"/>
-      <c r="J60" s="183"/>
-      <c r="K60" s="183"/>
-      <c r="L60" s="183"/>
-      <c r="M60" s="183"/>
-      <c r="N60" s="183"/>
-      <c r="O60" s="183"/>
-      <c r="P60" s="183"/>
-      <c r="Q60" s="192"/>
-      <c r="R60" s="192"/>
-      <c r="S60" s="192"/>
-      <c r="T60" s="193"/>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="170">
-        <v>49</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="113">
-        <v>3</v>
-      </c>
-      <c r="D61" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="H61" s="183"/>
-      <c r="I61" s="183"/>
-      <c r="J61" s="183"/>
-      <c r="K61" s="183"/>
-      <c r="L61" s="183"/>
-      <c r="M61" s="183"/>
-      <c r="N61" s="183"/>
-      <c r="O61" s="183"/>
-      <c r="P61" s="183"/>
-      <c r="Q61" s="192"/>
-      <c r="R61" s="192"/>
-      <c r="S61" s="192"/>
-      <c r="T61" s="193"/>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="171">
-        <v>50</v>
-      </c>
-      <c r="B62" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="173">
-        <v>3</v>
-      </c>
-      <c r="D62" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="206"/>
-      <c r="F62" s="206"/>
-      <c r="G62" s="206"/>
-      <c r="H62" s="206"/>
-      <c r="I62" s="206"/>
-      <c r="J62" s="206"/>
-      <c r="K62" s="206"/>
-      <c r="L62" s="206"/>
-      <c r="M62" s="206"/>
-      <c r="N62" s="206"/>
-      <c r="O62" s="206"/>
-      <c r="P62" s="206"/>
-      <c r="Q62" s="207"/>
-      <c r="R62" s="207"/>
-      <c r="S62" s="207"/>
-      <c r="T62" s="208"/>
-    </row>
-    <row r="63" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A63" s="307" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="308"/>
-      <c r="C63" s="308"/>
-      <c r="D63" s="308"/>
-      <c r="E63" s="308"/>
-      <c r="F63" s="308"/>
-      <c r="G63" s="308"/>
-      <c r="H63" s="308"/>
-      <c r="I63" s="308"/>
-      <c r="J63" s="308"/>
-      <c r="K63" s="308"/>
-      <c r="L63" s="308"/>
-      <c r="M63" s="308"/>
-      <c r="N63" s="308"/>
-      <c r="O63" s="308"/>
-      <c r="P63" s="308"/>
-      <c r="Q63" s="308"/>
-      <c r="R63" s="308"/>
-      <c r="S63" s="308"/>
-      <c r="T63" s="309"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="150">
-        <v>51</v>
-      </c>
-      <c r="B64" s="151" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="152">
-        <v>3</v>
-      </c>
-      <c r="D64" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
-      <c r="G64" s="149"/>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="149"/>
-      <c r="N64" s="149"/>
-      <c r="O64" s="149"/>
-      <c r="P64" s="149"/>
-      <c r="Q64" s="149"/>
-      <c r="R64" s="149"/>
-      <c r="S64" s="160"/>
-      <c r="T64" s="154"/>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="155">
-        <v>52</v>
-      </c>
-      <c r="B65" s="156" t="s">
+      <c r="E67" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="157">
-        <v>3</v>
-      </c>
-      <c r="D65" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="104"/>
-      <c r="T65" s="37"/>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="322" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="323"/>
-      <c r="C66" s="323"/>
-      <c r="D66" s="323"/>
-      <c r="E66" s="323"/>
-      <c r="F66" s="323"/>
-      <c r="G66" s="323"/>
-      <c r="H66" s="323"/>
-      <c r="I66" s="323"/>
-      <c r="J66" s="323"/>
-      <c r="K66" s="323"/>
-      <c r="L66" s="323"/>
-      <c r="M66" s="323"/>
-      <c r="N66" s="323"/>
-      <c r="O66" s="323"/>
-      <c r="P66" s="323"/>
-      <c r="Q66" s="323"/>
-      <c r="R66" s="323"/>
-      <c r="S66" s="323"/>
-      <c r="T66" s="324"/>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="161">
-        <v>53</v>
-      </c>
-      <c r="B67" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="163">
-        <v>3</v>
-      </c>
-      <c r="D67" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
-      <c r="M67" s="165"/>
-      <c r="N67" s="165"/>
-      <c r="O67" s="165"/>
-      <c r="P67" s="165"/>
-      <c r="Q67" s="165"/>
-      <c r="R67" s="165"/>
-      <c r="S67" s="165"/>
-      <c r="T67" s="166"/>
+      <c r="F67" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="276"/>
+      <c r="H67" s="276"/>
+      <c r="I67" s="276"/>
+      <c r="J67" s="276"/>
+      <c r="K67" s="276"/>
+      <c r="L67" s="276"/>
+      <c r="M67" s="276"/>
+      <c r="N67" s="276"/>
+      <c r="O67" s="276"/>
+      <c r="P67" s="276"/>
+      <c r="Q67" s="276"/>
+      <c r="R67" s="276"/>
+      <c r="S67" s="276"/>
+      <c r="T67" s="277"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6239,8 +6681,8 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -6251,946 +6693,946 @@
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1">
-      <c r="A1" s="347" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="348" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="348" t="s">
+      <c r="A1" s="394" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="394"/>
+      <c r="C1" s="395" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="349" t="s">
+      <c r="Q1" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A2" s="347"/>
-      <c r="B2" s="347"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="15">
+      <c r="A2" s="394"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="12">
         <v>45198</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>45175</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>45212</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>45219</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>45226</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>45233</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="13">
         <v>45240</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="13">
         <v>45247</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="13">
         <v>45254</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="13">
         <v>45261</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="13">
         <v>45268</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="14">
         <v>45275</v>
       </c>
-      <c r="Q2" s="350"/>
-      <c r="R2" s="23">
+      <c r="Q2" s="397"/>
+      <c r="R2" s="20">
         <v>44938</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="21">
         <v>44945</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="362" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="364"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="365"/>
-      <c r="S3" s="366"/>
+      <c r="A3" s="409" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="410"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
+      <c r="F3" s="410"/>
+      <c r="G3" s="410"/>
+      <c r="H3" s="410"/>
+      <c r="I3" s="410"/>
+      <c r="J3" s="410"/>
+      <c r="K3" s="410"/>
+      <c r="L3" s="410"/>
+      <c r="M3" s="410"/>
+      <c r="N3" s="410"/>
+      <c r="O3" s="410"/>
+      <c r="P3" s="411"/>
+      <c r="Q3" s="397"/>
+      <c r="R3" s="412"/>
+      <c r="S3" s="413"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A4" s="240">
+      <c r="A4" s="206">
         <v>1</v>
       </c>
-      <c r="B4" s="227" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="241">
+      <c r="B4" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="207">
         <v>1</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="226"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="227"/>
-      <c r="P4" s="228" t="s">
+      <c r="E4" s="194"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="350"/>
-      <c r="R4" s="216"/>
-      <c r="S4" s="217"/>
+      <c r="Q4" s="397"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="243">
+      <c r="A5" s="209">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="183">
+      <c r="B5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="166">
         <v>1</v>
       </c>
-      <c r="D5" s="184" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="350"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
+      <c r="D5" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="397"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="244">
+      <c r="A6" s="210">
         <v>3</v>
       </c>
-      <c r="B6" s="213" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="214">
+      <c r="B6" s="183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="184">
         <v>1</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="229"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="213"/>
-      <c r="O6" s="213"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="350"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="397"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="243">
+      <c r="A7" s="209">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="183">
+      <c r="B7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="166">
         <v>1</v>
       </c>
-      <c r="D7" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="350"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="D7" s="167" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="397"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="244">
+      <c r="A8" s="210">
         <v>5</v>
       </c>
-      <c r="B8" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="214">
+      <c r="B8" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="184">
         <v>1</v>
       </c>
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="350"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="198"/>
+      <c r="Q8" s="397"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="243">
+      <c r="A9" s="209">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="183">
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="166">
         <v>1</v>
       </c>
-      <c r="D9" s="184" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="350"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
+      <c r="D9" s="167" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="397"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A10" s="246">
+      <c r="A10" s="212">
         <v>7</v>
       </c>
-      <c r="B10" s="232" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="247">
+      <c r="B10" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="213">
         <v>1</v>
       </c>
-      <c r="D10" s="248" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="231"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="232"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="232"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="351"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A11" s="370"/>
-      <c r="B11" s="371"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
-      <c r="F11" s="371"/>
-      <c r="G11" s="371"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="371"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="371"/>
-      <c r="P11" s="371"/>
-      <c r="Q11" s="371"/>
-      <c r="R11" s="371"/>
-      <c r="S11" s="371"/>
-    </row>
-    <row r="12" spans="1:21" ht="19.5" thickBot="1">
-      <c r="A12" s="367" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="368"/>
-      <c r="I12" s="368"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="368"/>
-      <c r="L12" s="368"/>
-      <c r="M12" s="368"/>
-      <c r="N12" s="368"/>
-      <c r="O12" s="368"/>
-      <c r="P12" s="368"/>
-      <c r="Q12" s="368"/>
-      <c r="R12" s="368"/>
-      <c r="S12" s="368"/>
-      <c r="T12" s="368"/>
-      <c r="U12" s="369"/>
-    </row>
-    <row r="13" spans="1:21" ht="31.5">
-      <c r="A13" s="372"/>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="236" t="s">
+      <c r="D10" s="214" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="398"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="418"/>
+      <c r="B11" s="419"/>
+      <c r="C11" s="419"/>
+      <c r="D11" s="419"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="419"/>
+      <c r="H11" s="419"/>
+      <c r="I11" s="419"/>
+      <c r="J11" s="419"/>
+      <c r="K11" s="419"/>
+      <c r="L11" s="419"/>
+      <c r="M11" s="419"/>
+      <c r="N11" s="419"/>
+      <c r="O11" s="419"/>
+      <c r="P11" s="419"/>
+      <c r="Q11" s="419"/>
+      <c r="R11" s="419"/>
+      <c r="S11" s="419"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75">
+      <c r="A12" s="414" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="415"/>
+      <c r="C12" s="415"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="415"/>
+      <c r="H12" s="415"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="415"/>
+      <c r="M12" s="415"/>
+      <c r="N12" s="415"/>
+      <c r="O12" s="415"/>
+      <c r="P12" s="415"/>
+      <c r="Q12" s="415"/>
+      <c r="R12" s="416"/>
+      <c r="S12" s="416"/>
+      <c r="T12" s="416"/>
+      <c r="U12" s="417"/>
+    </row>
+    <row r="13" spans="1:21" ht="32.25">
+      <c r="A13" s="420"/>
+      <c r="B13" s="421"/>
+      <c r="C13" s="421"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="237" t="s">
+      <c r="F13" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="237" t="s">
+      <c r="H13" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="237" t="s">
+      <c r="I13" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="237" t="s">
+      <c r="J13" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="237" t="s">
+      <c r="K13" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="237" t="s">
+      <c r="L13" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="237" t="s">
+      <c r="M13" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="238" t="s">
+      <c r="N13" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="293" t="s">
+      <c r="O13" s="426" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="239" t="s">
+      <c r="P13" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="249" t="s">
+      <c r="Q13" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="59" t="s">
+      <c r="S13" s="301" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="67" t="s">
+      <c r="T13" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="63" t="s">
+      <c r="U13" s="303" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A14" s="375"/>
-      <c r="B14" s="376"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="219">
+      <c r="A14" s="423"/>
+      <c r="B14" s="424"/>
+      <c r="C14" s="424"/>
+      <c r="D14" s="425"/>
+      <c r="E14" s="188">
         <v>44952</v>
       </c>
-      <c r="F14" s="220">
+      <c r="F14" s="189">
         <v>44959</v>
       </c>
-      <c r="G14" s="220">
+      <c r="G14" s="189">
         <v>44966</v>
       </c>
-      <c r="H14" s="220">
+      <c r="H14" s="189">
         <v>44973</v>
       </c>
-      <c r="I14" s="220">
+      <c r="I14" s="189">
         <v>44980</v>
       </c>
-      <c r="J14" s="220">
+      <c r="J14" s="189">
         <v>44986</v>
       </c>
-      <c r="K14" s="220">
+      <c r="K14" s="189">
         <v>44993</v>
       </c>
-      <c r="L14" s="220">
+      <c r="L14" s="189">
         <v>45000</v>
       </c>
-      <c r="M14" s="220">
+      <c r="M14" s="189">
         <v>45007</v>
       </c>
-      <c r="N14" s="224">
+      <c r="N14" s="192">
         <v>45014</v>
       </c>
-      <c r="O14" s="293"/>
-      <c r="P14" s="225">
+      <c r="O14" s="426"/>
+      <c r="P14" s="193">
         <v>45035</v>
       </c>
-      <c r="Q14" s="250">
+      <c r="Q14" s="216">
         <v>45042</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="304">
         <v>45049</v>
       </c>
-      <c r="S14" s="221">
+      <c r="S14" s="190">
         <v>45056</v>
       </c>
-      <c r="T14" s="222">
+      <c r="T14" s="191">
         <v>45063</v>
       </c>
-      <c r="U14" s="223">
+      <c r="U14" s="305">
         <v>45070</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="240">
+    <row r="15" spans="1:21" ht="32.25">
+      <c r="A15" s="206">
         <v>8</v>
       </c>
-      <c r="B15" s="227" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="241">
+      <c r="B15" s="195" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="207">
         <v>2</v>
       </c>
-      <c r="D15" s="241" t="s">
+      <c r="D15" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="228" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="378"/>
-      <c r="P15" s="226"/>
-      <c r="Q15" s="251" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="216"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-      <c r="U15" s="217"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="282"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="282"/>
+      <c r="M15" s="282"/>
+      <c r="N15" s="283" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="427"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="290" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="306"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="243">
+      <c r="A16" s="209">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="183">
+      <c r="B16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="166">
         <v>2</v>
       </c>
-      <c r="D16" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="378"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="215"/>
-      <c r="T16" s="215"/>
-      <c r="U16" s="28"/>
+      <c r="D16" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="427"/>
+      <c r="P16" s="292"/>
+      <c r="Q16" s="293"/>
+      <c r="R16" s="308"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="294"/>
+      <c r="U16" s="309"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="244">
+      <c r="A17" s="210">
         <v>10</v>
       </c>
-      <c r="B17" s="213" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="214">
+      <c r="B17" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="184">
         <v>2</v>
       </c>
-      <c r="D17" s="214" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="378"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="215"/>
-      <c r="T17" s="215"/>
-      <c r="U17" s="28"/>
+      <c r="D17" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="285"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="285"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="285"/>
+      <c r="L17" s="285"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="286"/>
+      <c r="O17" s="427"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="293"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="294"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="309"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="243">
+      <c r="A18" s="209">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="183">
+      <c r="B18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="166">
         <v>2</v>
       </c>
-      <c r="D18" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="378"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="215"/>
-      <c r="T18" s="215"/>
-      <c r="U18" s="28"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.5">
-      <c r="A19" s="244">
+      <c r="D18" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="284"/>
+      <c r="O18" s="427"/>
+      <c r="P18" s="292"/>
+      <c r="Q18" s="293"/>
+      <c r="R18" s="308"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="309"/>
+    </row>
+    <row r="19" spans="1:21" ht="29.25">
+      <c r="A19" s="210">
         <v>12</v>
       </c>
-      <c r="B19" s="213" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="214">
+      <c r="B19" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="184">
         <v>2</v>
       </c>
-      <c r="D19" s="214" t="s">
+      <c r="D19" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="378"/>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="394" t="s">
-        <v>143</v>
-      </c>
-      <c r="S19" s="215"/>
-      <c r="T19" s="215"/>
-      <c r="U19" s="28"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="286"/>
+      <c r="O19" s="427"/>
+      <c r="P19" s="296"/>
+      <c r="Q19" s="297"/>
+      <c r="R19" s="313" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" s="294"/>
+      <c r="T19" s="294"/>
+      <c r="U19" s="309"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="243">
+      <c r="A20" s="209">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="183">
+      <c r="B20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="166">
         <v>2</v>
       </c>
-      <c r="D20" s="183" t="s">
+      <c r="D20" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="378"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="215"/>
-      <c r="T20" s="215"/>
-      <c r="U20" s="28"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A21" s="246">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="427"/>
+      <c r="P20" s="292"/>
+      <c r="Q20" s="293"/>
+      <c r="R20" s="308"/>
+      <c r="S20" s="294"/>
+      <c r="T20" s="294"/>
+      <c r="U20" s="309"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="212">
         <v>14</v>
       </c>
-      <c r="B21" s="232" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="247">
+      <c r="B21" s="200" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="213">
         <v>2</v>
       </c>
-      <c r="D21" s="247" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="379"/>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="252"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="235"/>
-      <c r="U21" s="30"/>
+      <c r="D21" s="213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="287"/>
+      <c r="M21" s="287"/>
+      <c r="N21" s="288"/>
+      <c r="O21" s="428"/>
+      <c r="P21" s="298"/>
+      <c r="Q21" s="299"/>
+      <c r="R21" s="310"/>
+      <c r="S21" s="311"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="312"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="D22" s="3"/>
-      <c r="T22" s="281" t="s">
-        <v>146</v>
+      <c r="T22" s="328" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T23" s="282"/>
+      <c r="T23" s="328"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T24" s="282"/>
+      <c r="T24" s="328"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T25" s="282"/>
+      <c r="T25" s="328"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T26" s="282"/>
+      <c r="T26" s="328"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T27" s="282"/>
+      <c r="T27" s="328"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T28" s="282"/>
+      <c r="T28" s="328"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T29" s="282"/>
+      <c r="T29" s="328"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T30" s="282"/>
+      <c r="T30" s="328"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3"/>
-      <c r="T31" s="282"/>
+      <c r="T31" s="328"/>
     </row>
     <row r="32" spans="1:21" ht="16.5" thickBot="1">
       <c r="A32" s="3"/>
-      <c r="T32" s="283"/>
+      <c r="T32" s="329"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" thickBot="1">
-      <c r="A33" s="361"/>
-      <c r="B33" s="361"/>
-      <c r="C33" s="361"/>
-      <c r="D33" s="361"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="361"/>
-      <c r="G33" s="361"/>
-      <c r="H33" s="361"/>
-      <c r="I33" s="361"/>
-      <c r="J33" s="361"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="361"/>
-      <c r="M33" s="361"/>
-      <c r="N33" s="361"/>
-      <c r="O33" s="361"/>
-      <c r="P33" s="361"/>
-      <c r="Q33" s="361"/>
-      <c r="R33" s="361"/>
-      <c r="S33" s="361"/>
-      <c r="T33" s="361"/>
+      <c r="A33" s="408"/>
+      <c r="B33" s="408"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="408"/>
+      <c r="E33" s="408"/>
+      <c r="F33" s="408"/>
+      <c r="G33" s="408"/>
+      <c r="H33" s="408"/>
+      <c r="I33" s="408"/>
+      <c r="J33" s="408"/>
+      <c r="K33" s="408"/>
+      <c r="L33" s="408"/>
+      <c r="M33" s="408"/>
+      <c r="N33" s="408"/>
+      <c r="O33" s="408"/>
+      <c r="P33" s="408"/>
+      <c r="Q33" s="408"/>
+      <c r="R33" s="408"/>
+      <c r="S33" s="408"/>
+      <c r="T33" s="408"/>
     </row>
     <row r="34" spans="1:23" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A34" s="358" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="359"/>
-      <c r="C34" s="359"/>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="359"/>
-      <c r="H34" s="359"/>
-      <c r="I34" s="359"/>
-      <c r="J34" s="359"/>
-      <c r="K34" s="359"/>
-      <c r="L34" s="359"/>
-      <c r="M34" s="359"/>
-      <c r="N34" s="359"/>
-      <c r="O34" s="359"/>
-      <c r="P34" s="359"/>
-      <c r="Q34" s="359"/>
-      <c r="R34" s="359"/>
-      <c r="S34" s="359"/>
-      <c r="T34" s="360"/>
+      <c r="A34" s="405" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="406"/>
+      <c r="C34" s="406"/>
+      <c r="D34" s="406"/>
+      <c r="E34" s="406"/>
+      <c r="F34" s="406"/>
+      <c r="G34" s="406"/>
+      <c r="H34" s="406"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="406"/>
+      <c r="K34" s="406"/>
+      <c r="L34" s="406"/>
+      <c r="M34" s="406"/>
+      <c r="N34" s="406"/>
+      <c r="O34" s="406"/>
+      <c r="P34" s="406"/>
+      <c r="Q34" s="406"/>
+      <c r="R34" s="406"/>
+      <c r="S34" s="406"/>
+      <c r="T34" s="407"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A35" s="352"/>
-      <c r="B35" s="353"/>
-      <c r="C35" s="353"/>
-      <c r="D35" s="354"/>
-      <c r="E35" s="146" t="s">
+      <c r="A35" s="399"/>
+      <c r="B35" s="400"/>
+      <c r="C35" s="400"/>
+      <c r="D35" s="401"/>
+      <c r="E35" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="147" t="s">
+      <c r="F35" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="147" t="s">
+      <c r="H35" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="147" t="s">
+      <c r="J35" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="147" t="s">
+      <c r="K35" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="147" t="s">
+      <c r="L35" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="147" t="s">
+      <c r="M35" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="148" t="s">
+      <c r="N35" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="O35" s="147" t="s">
+      <c r="O35" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="P35" s="148" t="s">
+      <c r="P35" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="Q35" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="R35" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="S35" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="T35" s="103"/>
+      <c r="Q35" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="R35" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="S35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="91"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="355"/>
-      <c r="B36" s="356"/>
-      <c r="C36" s="356"/>
-      <c r="D36" s="357"/>
-      <c r="E36" s="253">
+      <c r="A36" s="402"/>
+      <c r="B36" s="403"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="217">
         <v>45077</v>
       </c>
-      <c r="F36" s="254">
+      <c r="F36" s="218">
         <v>45084</v>
       </c>
-      <c r="G36" s="254">
+      <c r="G36" s="218">
         <v>45091</v>
       </c>
-      <c r="H36" s="254">
+      <c r="H36" s="218">
         <v>45098</v>
       </c>
-      <c r="I36" s="254">
+      <c r="I36" s="218">
         <v>45105</v>
       </c>
-      <c r="J36" s="254">
+      <c r="J36" s="218">
         <v>45112</v>
       </c>
-      <c r="K36" s="254">
+      <c r="K36" s="218">
         <v>45119</v>
       </c>
-      <c r="L36" s="254">
+      <c r="L36" s="218">
         <v>45126</v>
       </c>
-      <c r="M36" s="254">
+      <c r="M36" s="218">
         <v>45133</v>
       </c>
-      <c r="N36" s="254">
+      <c r="N36" s="218">
         <v>45140</v>
       </c>
-      <c r="O36" s="254">
+      <c r="O36" s="218">
         <v>45147</v>
       </c>
-      <c r="P36" s="254">
+      <c r="P36" s="218">
         <v>45154</v>
       </c>
-      <c r="Q36" s="254">
+      <c r="Q36" s="218">
         <v>45161</v>
       </c>
-      <c r="R36" s="254">
+      <c r="R36" s="218">
         <v>45168</v>
       </c>
-      <c r="S36" s="255">
+      <c r="S36" s="219">
         <v>45175</v>
       </c>
-      <c r="T36" s="256">
+      <c r="T36" s="220">
         <v>45178</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A37" s="257">
+      <c r="A37" s="221">
         <v>15</v>
       </c>
-      <c r="B37" s="165" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="258">
+      <c r="B37" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="222">
         <v>3</v>
       </c>
-      <c r="D37" s="259" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="166"/>
+      <c r="D37" s="223" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="149"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
-      <c r="W39" s="218"/>
+      <c r="W39" s="187"/>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1"/>
@@ -7259,7 +7701,7 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -7272,199 +7714,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1">
-      <c r="A1" s="381" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="386" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="385" t="s">
+      <c r="A1" s="430" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="431"/>
+      <c r="C1" s="435" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="434" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="383"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="385"/>
+      <c r="A2" s="432"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="434"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A3" s="265"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="267"/>
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="231"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="265"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267"/>
+      <c r="A4" s="229"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="388" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="389"/>
-      <c r="C5" s="389"/>
-      <c r="D5" s="390"/>
+      <c r="A5" s="437" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="439"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="170">
+      <c r="A6" s="153">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="224">
+        <v>1</v>
+      </c>
+      <c r="D6" s="182" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="153">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="224">
+        <v>1</v>
+      </c>
+      <c r="D7" s="182" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="154">
+        <v>3</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="225">
+        <v>1</v>
+      </c>
+      <c r="D8" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="260">
-        <v>1</v>
-      </c>
-      <c r="D6" s="202" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="170">
+    </row>
+    <row r="9" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="440" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="441"/>
+      <c r="C11" s="441"/>
+      <c r="D11" s="442"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="153">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="224">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="260">
-        <v>1</v>
-      </c>
-      <c r="D7" s="202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="171">
+      <c r="D12" s="182" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="153">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="224">
+        <v>2</v>
+      </c>
+      <c r="D13" s="182" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="153">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="224">
+        <v>2</v>
+      </c>
+      <c r="D14" s="227" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="154">
+        <v>8</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="225">
+        <v>2</v>
+      </c>
+      <c r="D15" s="228" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="429" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="429"/>
+      <c r="C17" s="429"/>
+      <c r="D17" s="429"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="224">
         <v>3</v>
       </c>
-      <c r="B8" s="172" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="261">
-        <v>1</v>
-      </c>
-      <c r="D8" s="262" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="268" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:4" s="268" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="391" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="392"/>
-      <c r="C11" s="392"/>
-      <c r="D11" s="393"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="170">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="260">
-        <v>2</v>
-      </c>
-      <c r="D12" s="202" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="170">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="260">
-        <v>2</v>
-      </c>
-      <c r="D13" s="202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="170">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="260">
-        <v>2</v>
-      </c>
-      <c r="D14" s="263" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="171">
-        <v>8</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="261">
-        <v>2</v>
-      </c>
-      <c r="D15" s="264" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="380" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="380"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="8">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="260">
+      <c r="D18" s="103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="224">
         <v>3</v>
       </c>
-      <c r="D18" s="116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="8">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="260">
+      <c r="D19" s="103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="224">
         <v>3</v>
       </c>
-      <c r="D19" s="116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="260">
-        <v>3</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>70</v>
+      <c r="D20" s="101" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">

--- a/docs/comp_sub_dates_2023-24_.xlsx
+++ b/docs/comp_sub_dates_2023-24_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE25F6D2-9B06-4698-A2FD-C2329B314A87}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF79E07-1A65-4990-B2A8-6E189AC2EE07}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -292,6 +292,12 @@
     <t>Drishty</t>
   </si>
   <si>
+    <t>AE1 Portfolio-50%</t>
+  </si>
+  <si>
+    <t>AE2 Report - 50%</t>
+  </si>
+  <si>
     <t>COM528 Object Oriented Development</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
   </si>
   <si>
     <t>COM618 Data Science (Core to Apprentice Sem 2 &amp; Option Comp &amp; Digi Design)</t>
+  </si>
+  <si>
+    <t>AE1 Report -100%</t>
   </si>
   <si>
     <t>COM619 DevOps (Core: SE, App SE &amp; Option Computing)</t>
@@ -3163,6 +3172,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3244,6 +3285,81 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3289,81 +3405,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,38 +3551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3901,14 +3910,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="334" t="s">
+      <c r="D1" s="346" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -3947,7 +3956,7 @@
       <c r="P1" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="338" t="s">
+      <c r="Q1" s="350" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="316" t="s">
@@ -3958,10 +3967,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="29.1" customHeight="1">
-      <c r="A2" s="332"/>
-      <c r="B2" s="333"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="335"/>
+      <c r="A2" s="344"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="347"/>
       <c r="E2" s="12">
         <v>45198</v>
       </c>
@@ -3998,7 +4007,7 @@
       <c r="P2" s="315">
         <v>45275</v>
       </c>
-      <c r="Q2" s="339"/>
+      <c r="Q2" s="351"/>
       <c r="R2" s="317">
         <v>44938</v>
       </c>
@@ -4033,7 +4042,7 @@
       <c r="P3" s="321" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="339"/>
+      <c r="Q3" s="351"/>
       <c r="R3" s="322"/>
       <c r="S3" s="323"/>
     </row>
@@ -4062,7 +4071,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="293"/>
-      <c r="Q4" s="339"/>
+      <c r="Q4" s="351"/>
       <c r="R4" s="324" t="s">
         <v>23</v>
       </c>
@@ -4093,38 +4102,38 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="274"/>
-      <c r="Q5" s="340"/>
+      <c r="Q5" s="352"/>
       <c r="R5" s="325"/>
       <c r="S5" s="257"/>
     </row>
     <row r="6" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A6" s="344"/>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="346"/>
-      <c r="E6" s="346"/>
-      <c r="F6" s="346"/>
-      <c r="G6" s="346"/>
-      <c r="H6" s="346"/>
-      <c r="I6" s="346"/>
-      <c r="J6" s="346"/>
-      <c r="K6" s="346"/>
-      <c r="L6" s="346"/>
-      <c r="M6" s="346"/>
-      <c r="N6" s="346"/>
-      <c r="O6" s="346"/>
-      <c r="P6" s="346"/>
-      <c r="Q6" s="346"/>
-      <c r="R6" s="346"/>
-      <c r="S6" s="347"/>
+      <c r="A6" s="356"/>
+      <c r="B6" s="357"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="358"/>
+      <c r="L6" s="358"/>
+      <c r="M6" s="358"/>
+      <c r="N6" s="358"/>
+      <c r="O6" s="358"/>
+      <c r="P6" s="358"/>
+      <c r="Q6" s="358"/>
+      <c r="R6" s="358"/>
+      <c r="S6" s="359"/>
     </row>
     <row r="7" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A7" s="350"/>
-      <c r="B7" s="351"/>
-      <c r="C7" s="348" t="s">
+      <c r="A7" s="362"/>
+      <c r="B7" s="363"/>
+      <c r="C7" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="334" t="s">
+      <c r="D7" s="346" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -4157,7 +4166,7 @@
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="341" t="s">
+      <c r="O7" s="353" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="32" t="s">
@@ -4180,10 +4189,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A8" s="352"/>
-      <c r="B8" s="353"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="335"/>
+      <c r="A8" s="364"/>
+      <c r="B8" s="365"/>
+      <c r="C8" s="361"/>
+      <c r="D8" s="347"/>
       <c r="E8" s="29">
         <v>44952</v>
       </c>
@@ -4214,7 +4223,7 @@
       <c r="N8" s="30">
         <v>45014</v>
       </c>
-      <c r="O8" s="342"/>
+      <c r="O8" s="354"/>
       <c r="P8" s="34">
         <v>45035</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="284"/>
-      <c r="O9" s="342"/>
+      <c r="O9" s="354"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="37" t="s">
         <v>32</v>
@@ -4294,7 +4303,7 @@
       <c r="N10" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="342"/>
+      <c r="O10" s="354"/>
       <c r="P10" s="181" t="s">
         <v>36</v>
       </c>
@@ -4327,7 +4336,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="275"/>
-      <c r="O11" s="343"/>
+      <c r="O11" s="355"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="24"/>
@@ -4339,7 +4348,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="327" t="s">
+      <c r="T12" s="339" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4347,37 +4356,37 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="328"/>
+      <c r="T13" s="340"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T14" s="328"/>
+      <c r="T14" s="340"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T15" s="328"/>
+      <c r="T15" s="340"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T16" s="328"/>
+      <c r="T16" s="340"/>
     </row>
     <row r="17" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T17" s="328"/>
+      <c r="T17" s="340"/>
     </row>
     <row r="18" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T18" s="328"/>
+      <c r="T18" s="340"/>
     </row>
     <row r="19" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T19" s="328"/>
+      <c r="T19" s="340"/>
     </row>
     <row r="20" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T20" s="328"/>
+      <c r="T20" s="340"/>
     </row>
     <row r="21" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T21" s="328"/>
+      <c r="T21" s="340"/>
     </row>
     <row r="22" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T22" s="328"/>
+      <c r="T22" s="340"/>
     </row>
     <row r="23" spans="20:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="T23" s="329"/>
+      <c r="T23" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4409,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488AC5A-058D-400E-9940-EA3004BDD6BC}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4419,59 +4428,59 @@
     <col min="2" max="2" width="71.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
     <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="15" max="15" width="18.625" customWidth="1"/>
     <col min="16" max="16" width="22.5" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="20.875" customWidth="1"/>
     <col min="19" max="19" width="14.875" customWidth="1"/>
     <col min="20" max="20" width="13.375" customWidth="1"/>
     <col min="21" max="21" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="400" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-      <c r="I1" s="364"/>
-      <c r="J1" s="364"/>
-      <c r="K1" s="364"/>
-      <c r="L1" s="364"/>
-      <c r="M1" s="364"/>
-      <c r="N1" s="364"/>
-      <c r="O1" s="364"/>
-      <c r="P1" s="364"/>
-      <c r="Q1" s="364"/>
-      <c r="R1" s="364"/>
-      <c r="S1" s="365"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+      <c r="N1" s="401"/>
+      <c r="O1" s="401"/>
+      <c r="P1" s="401"/>
+      <c r="Q1" s="401"/>
+      <c r="R1" s="401"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A2" s="366"/>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
-      <c r="M2" s="367"/>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
-      <c r="S2" s="368"/>
+      <c r="A2" s="403"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="404"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="404"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="404"/>
+      <c r="S2" s="405"/>
     </row>
     <row r="3" spans="1:19" ht="49.5" customHeight="1">
       <c r="A3" s="122" t="s">
@@ -4520,7 +4529,7 @@
       <c r="P3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="383" t="s">
+      <c r="Q3" s="380" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="18" t="s">
@@ -4573,7 +4582,7 @@
       <c r="P4" s="121">
         <v>45275</v>
       </c>
-      <c r="Q4" s="384"/>
+      <c r="Q4" s="381"/>
       <c r="R4" s="116">
         <v>44938</v>
       </c>
@@ -4606,7 +4615,7 @@
       <c r="N5" s="163"/>
       <c r="O5" s="163"/>
       <c r="P5" s="164"/>
-      <c r="Q5" s="384"/>
+      <c r="Q5" s="381"/>
       <c r="R5" s="171"/>
       <c r="S5" s="172"/>
     </row>
@@ -4635,7 +4644,7 @@
       <c r="N6" s="166"/>
       <c r="O6" s="166"/>
       <c r="P6" s="167"/>
-      <c r="Q6" s="384"/>
+      <c r="Q6" s="381"/>
       <c r="R6" s="326" t="s">
         <v>47</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="N7" s="166"/>
       <c r="O7" s="166"/>
       <c r="P7" s="167"/>
-      <c r="Q7" s="384"/>
+      <c r="Q7" s="381"/>
       <c r="R7" s="173"/>
       <c r="S7" s="326" t="s">
         <v>50</v>
@@ -4697,7 +4706,7 @@
       <c r="N8" s="166"/>
       <c r="O8" s="166"/>
       <c r="P8" s="167"/>
-      <c r="Q8" s="384"/>
+      <c r="Q8" s="381"/>
       <c r="R8" s="173"/>
       <c r="S8" s="174"/>
     </row>
@@ -4726,7 +4735,7 @@
       <c r="N9" s="166"/>
       <c r="O9" s="166"/>
       <c r="P9" s="167"/>
-      <c r="Q9" s="384"/>
+      <c r="Q9" s="381"/>
       <c r="R9" s="173"/>
       <c r="S9" s="174"/>
     </row>
@@ -4757,7 +4766,7 @@
         <v>55</v>
       </c>
       <c r="P10" s="167"/>
-      <c r="Q10" s="384"/>
+      <c r="Q10" s="381"/>
       <c r="R10" s="173"/>
       <c r="S10" s="174"/>
     </row>
@@ -4786,32 +4795,32 @@
       <c r="N11" s="169"/>
       <c r="O11" s="169"/>
       <c r="P11" s="170"/>
-      <c r="Q11" s="384"/>
+      <c r="Q11" s="381"/>
       <c r="R11" s="175"/>
       <c r="S11" s="176"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="388" t="s">
+      <c r="A12" s="385" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="389"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="389"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
-      <c r="Q12" s="384"/>
-      <c r="R12" s="372"/>
-      <c r="S12" s="373"/>
+      <c r="B12" s="386"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="386"/>
+      <c r="F12" s="386"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="386"/>
+      <c r="K12" s="386"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="386"/>
+      <c r="N12" s="386"/>
+      <c r="O12" s="386"/>
+      <c r="P12" s="387"/>
+      <c r="Q12" s="381"/>
+      <c r="R12" s="369"/>
+      <c r="S12" s="370"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="70">
@@ -4838,7 +4847,7 @@
       <c r="N13" s="177"/>
       <c r="O13" s="177"/>
       <c r="P13" s="244"/>
-      <c r="Q13" s="384"/>
+      <c r="Q13" s="381"/>
       <c r="R13" s="171"/>
       <c r="S13" s="172"/>
     </row>
@@ -4867,7 +4876,7 @@
       <c r="N14" s="178"/>
       <c r="O14" s="178"/>
       <c r="P14" s="246"/>
-      <c r="Q14" s="384"/>
+      <c r="Q14" s="381"/>
       <c r="R14" s="173"/>
       <c r="S14" s="174"/>
     </row>
@@ -4896,7 +4905,7 @@
       <c r="N15" s="178"/>
       <c r="O15" s="178"/>
       <c r="P15" s="246"/>
-      <c r="Q15" s="384"/>
+      <c r="Q15" s="381"/>
       <c r="R15" s="173"/>
       <c r="S15" s="174"/>
     </row>
@@ -4925,7 +4934,7 @@
       <c r="N16" s="178"/>
       <c r="O16" s="178"/>
       <c r="P16" s="246"/>
-      <c r="Q16" s="384"/>
+      <c r="Q16" s="381"/>
       <c r="R16" s="173"/>
       <c r="S16" s="174"/>
     </row>
@@ -4954,7 +4963,7 @@
       <c r="N17" s="178"/>
       <c r="O17" s="178"/>
       <c r="P17" s="246"/>
-      <c r="Q17" s="384"/>
+      <c r="Q17" s="381"/>
       <c r="R17" s="173"/>
       <c r="S17" s="174"/>
     </row>
@@ -4983,7 +4992,7 @@
       <c r="N18" s="178"/>
       <c r="O18" s="178"/>
       <c r="P18" s="246"/>
-      <c r="Q18" s="384"/>
+      <c r="Q18" s="381"/>
       <c r="R18" s="173"/>
       <c r="S18" s="174"/>
     </row>
@@ -5012,7 +5021,7 @@
       <c r="N19" s="280"/>
       <c r="O19" s="280"/>
       <c r="P19" s="281"/>
-      <c r="Q19" s="384"/>
+      <c r="Q19" s="381"/>
       <c r="R19" s="239"/>
       <c r="S19" s="240" t="s">
         <v>70</v>
@@ -5045,13 +5054,13 @@
       <c r="P20" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="384"/>
+      <c r="Q20" s="381"/>
       <c r="R20" s="173" t="s">
         <v>73</v>
       </c>
       <c r="S20" s="174"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" ht="32.25">
       <c r="A21" s="70">
         <v>16</v>
       </c>
@@ -5070,14 +5079,18 @@
       <c r="H21" s="178"/>
       <c r="I21" s="178"/>
       <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
+      <c r="K21" s="178" t="s">
+        <v>76</v>
+      </c>
       <c r="L21" s="178"/>
       <c r="M21" s="178"/>
       <c r="N21" s="178"/>
       <c r="O21" s="178"/>
       <c r="P21" s="246"/>
-      <c r="Q21" s="384"/>
-      <c r="R21" s="173"/>
+      <c r="Q21" s="381"/>
+      <c r="R21" s="173" t="s">
+        <v>77</v>
+      </c>
       <c r="S21" s="174"/>
     </row>
     <row r="22" spans="1:20">
@@ -5085,7 +5098,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="99">
         <v>1</v>
@@ -5105,34 +5118,34 @@
       <c r="N22" s="248"/>
       <c r="O22" s="248"/>
       <c r="P22" s="249"/>
-      <c r="Q22" s="384"/>
+      <c r="Q22" s="381"/>
       <c r="R22" s="175"/>
       <c r="S22" s="176"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="385" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="386"/>
-      <c r="C23" s="386"/>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="386"/>
-      <c r="H23" s="386"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="386"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="384"/>
-      <c r="R23" s="374"/>
-      <c r="S23" s="375"/>
-      <c r="T23" s="380" t="s">
-        <v>78</v>
+      <c r="A23" s="382" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="383"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="383"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
+      <c r="K23" s="383"/>
+      <c r="L23" s="383"/>
+      <c r="M23" s="383"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="383"/>
+      <c r="P23" s="384"/>
+      <c r="Q23" s="381"/>
+      <c r="R23" s="371"/>
+      <c r="S23" s="372"/>
+      <c r="T23" s="377" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="42.75" customHeight="1">
@@ -5140,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="111">
         <v>1</v>
@@ -5156,25 +5169,25 @@
       <c r="J24" s="177"/>
       <c r="K24" s="177"/>
       <c r="L24" s="177" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M24" s="177"/>
       <c r="N24" s="177"/>
       <c r="O24" s="177"/>
       <c r="P24" s="244"/>
-      <c r="Q24" s="384"/>
+      <c r="Q24" s="381"/>
       <c r="R24" s="171" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S24" s="172"/>
-      <c r="T24" s="381"/>
+      <c r="T24" s="378"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="6">
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="102">
         <v>1</v>
@@ -5194,19 +5207,19 @@
       <c r="N25" s="178"/>
       <c r="O25" s="178"/>
       <c r="P25" s="246"/>
-      <c r="Q25" s="384"/>
+      <c r="Q25" s="381"/>
       <c r="R25" s="173" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S25" s="174"/>
-      <c r="T25" s="381"/>
+      <c r="T25" s="378"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="6">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="102">
         <v>1</v>
@@ -5226,17 +5239,17 @@
       <c r="N26" s="178"/>
       <c r="O26" s="178"/>
       <c r="P26" s="246"/>
-      <c r="Q26" s="384"/>
+      <c r="Q26" s="381"/>
       <c r="R26" s="173"/>
       <c r="S26" s="174"/>
-      <c r="T26" s="381"/>
+      <c r="T26" s="378"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="102">
         <v>1</v>
@@ -5256,17 +5269,17 @@
       <c r="N27" s="178"/>
       <c r="O27" s="178"/>
       <c r="P27" s="246"/>
-      <c r="Q27" s="384"/>
+      <c r="Q27" s="381"/>
       <c r="R27" s="173"/>
       <c r="S27" s="174"/>
-      <c r="T27" s="381"/>
+      <c r="T27" s="378"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="6">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="103">
         <v>1</v>
@@ -5286,23 +5299,25 @@
       <c r="N28" s="178"/>
       <c r="O28" s="178"/>
       <c r="P28" s="246"/>
-      <c r="Q28" s="384"/>
-      <c r="R28" s="173"/>
+      <c r="Q28" s="381"/>
+      <c r="R28" s="173" t="s">
+        <v>89</v>
+      </c>
       <c r="S28" s="174"/>
-      <c r="T28" s="381"/>
+      <c r="T28" s="378"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" s="102">
         <v>1</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E29" s="250"/>
       <c r="F29" s="178"/>
@@ -5316,17 +5331,17 @@
       <c r="N29" s="178"/>
       <c r="O29" s="178"/>
       <c r="P29" s="246"/>
-      <c r="Q29" s="384"/>
+      <c r="Q29" s="381"/>
       <c r="R29" s="254"/>
       <c r="S29" s="255"/>
-      <c r="T29" s="381"/>
+      <c r="T29" s="378"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="6">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C30" s="103">
         <v>1</v>
@@ -5346,25 +5361,25 @@
       <c r="N30" s="178"/>
       <c r="O30" s="178"/>
       <c r="P30" s="246"/>
-      <c r="Q30" s="384"/>
+      <c r="Q30" s="381"/>
       <c r="R30" s="254"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="381"/>
+      <c r="T30" s="378"/>
     </row>
     <row r="31" spans="1:20" s="241" customFormat="1" ht="16.5">
-      <c r="A31" s="443">
+      <c r="A31" s="327">
         <v>25</v>
       </c>
-      <c r="B31" s="444" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="445">
+      <c r="B31" s="328" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="329">
         <v>1</v>
       </c>
-      <c r="D31" s="445" t="s">
+      <c r="D31" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="446"/>
+      <c r="E31" s="330"/>
       <c r="F31" s="280"/>
       <c r="G31" s="280"/>
       <c r="H31" s="280"/>
@@ -5376,19 +5391,19 @@
       <c r="N31" s="280"/>
       <c r="O31" s="280"/>
       <c r="P31" s="281"/>
-      <c r="Q31" s="384"/>
+      <c r="Q31" s="381"/>
       <c r="R31" s="279"/>
       <c r="S31" s="281" t="s">
-        <v>91</v>
-      </c>
-      <c r="T31" s="381"/>
+        <v>94</v>
+      </c>
+      <c r="T31" s="378"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="6">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C32" s="103">
         <v>1</v>
@@ -5408,23 +5423,23 @@
       <c r="N32" s="178"/>
       <c r="O32" s="178"/>
       <c r="P32" s="246"/>
-      <c r="Q32" s="384"/>
+      <c r="Q32" s="381"/>
       <c r="R32" s="254"/>
       <c r="S32" s="255"/>
-      <c r="T32" s="381"/>
+      <c r="T32" s="378"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="6">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C33" s="102">
         <v>1</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E33" s="250"/>
       <c r="F33" s="178"/>
@@ -5438,17 +5453,17 @@
       <c r="N33" s="178"/>
       <c r="O33" s="178"/>
       <c r="P33" s="246"/>
-      <c r="Q33" s="384"/>
+      <c r="Q33" s="381"/>
       <c r="R33" s="254"/>
       <c r="S33" s="255"/>
-      <c r="T33" s="381"/>
+      <c r="T33" s="378"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="16">
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="113">
         <v>1</v>
@@ -5468,18 +5483,18 @@
       <c r="N34" s="252"/>
       <c r="O34" s="252"/>
       <c r="P34" s="253"/>
-      <c r="Q34" s="384"/>
+      <c r="Q34" s="381"/>
       <c r="R34" s="256"/>
       <c r="S34" s="257"/>
-      <c r="T34" s="382"/>
+      <c r="T34" s="379"/>
     </row>
     <row r="35" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A35" s="354" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="355"/>
-      <c r="C35" s="355"/>
-      <c r="D35" s="356"/>
+      <c r="A35" s="391" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="392"/>
+      <c r="C35" s="392"/>
+      <c r="D35" s="393"/>
       <c r="E35" s="89" t="s">
         <v>3</v>
       </c>
@@ -5510,7 +5525,7 @@
       <c r="N35" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O35" s="341" t="s">
+      <c r="O35" s="353" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="89" t="s">
@@ -5529,16 +5544,16 @@
         <v>28</v>
       </c>
       <c r="U35" s="53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A36" s="357" t="s">
+      <c r="A36" s="394" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="358"/>
-      <c r="C36" s="358"/>
-      <c r="D36" s="359"/>
+      <c r="B36" s="395"/>
+      <c r="C36" s="395"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="92">
         <v>44952</v>
       </c>
@@ -5569,7 +5584,7 @@
       <c r="N36" s="94">
         <v>45014</v>
       </c>
-      <c r="O36" s="342"/>
+      <c r="O36" s="354"/>
       <c r="P36" s="92">
         <v>45035</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37" s="97">
         <v>2</v>
@@ -5612,7 +5627,7 @@
       <c r="L37" s="177"/>
       <c r="M37" s="177"/>
       <c r="N37" s="244"/>
-      <c r="O37" s="342"/>
+      <c r="O37" s="354"/>
       <c r="P37" s="179"/>
       <c r="Q37" s="180"/>
       <c r="R37" s="258"/>
@@ -5625,13 +5640,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" s="63">
         <v>2</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E38" s="245"/>
       <c r="F38" s="178"/>
@@ -5643,9 +5658,9 @@
       <c r="L38" s="178"/>
       <c r="M38" s="178"/>
       <c r="N38" s="246"/>
-      <c r="O38" s="342"/>
+      <c r="O38" s="354"/>
       <c r="P38" s="242" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q38" s="182"/>
       <c r="R38" s="254"/>
@@ -5658,7 +5673,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="63">
         <v>2</v>
@@ -5676,7 +5691,7 @@
       <c r="L39" s="178"/>
       <c r="M39" s="178"/>
       <c r="N39" s="246"/>
-      <c r="O39" s="342"/>
+      <c r="O39" s="354"/>
       <c r="P39" s="181"/>
       <c r="Q39" s="182"/>
       <c r="R39" s="254"/>
@@ -5689,7 +5704,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" s="63">
         <v>2</v>
@@ -5707,7 +5722,7 @@
       <c r="L40" s="178"/>
       <c r="M40" s="178"/>
       <c r="N40" s="246"/>
-      <c r="O40" s="342"/>
+      <c r="O40" s="354"/>
       <c r="P40" s="165"/>
       <c r="Q40" s="167"/>
       <c r="R40" s="254"/>
@@ -5720,7 +5735,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="96">
         <v>2</v>
@@ -5738,7 +5753,7 @@
       <c r="L41" s="248"/>
       <c r="M41" s="248"/>
       <c r="N41" s="249"/>
-      <c r="O41" s="342"/>
+      <c r="O41" s="354"/>
       <c r="P41" s="168"/>
       <c r="Q41" s="170"/>
       <c r="R41" s="262"/>
@@ -5747,36 +5762,36 @@
       <c r="U41" s="264"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="377" t="s">
+      <c r="A42" s="374" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="378"/>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="378"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="378"/>
-      <c r="H42" s="378"/>
-      <c r="I42" s="378"/>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="378"/>
-      <c r="M42" s="378"/>
-      <c r="N42" s="379"/>
-      <c r="O42" s="342"/>
-      <c r="P42" s="372"/>
-      <c r="Q42" s="376"/>
-      <c r="R42" s="376"/>
-      <c r="S42" s="376"/>
-      <c r="T42" s="376"/>
-      <c r="U42" s="373"/>
+      <c r="B42" s="375"/>
+      <c r="C42" s="375"/>
+      <c r="D42" s="375"/>
+      <c r="E42" s="375"/>
+      <c r="F42" s="375"/>
+      <c r="G42" s="375"/>
+      <c r="H42" s="375"/>
+      <c r="I42" s="375"/>
+      <c r="J42" s="375"/>
+      <c r="K42" s="375"/>
+      <c r="L42" s="375"/>
+      <c r="M42" s="375"/>
+      <c r="N42" s="376"/>
+      <c r="O42" s="354"/>
+      <c r="P42" s="369"/>
+      <c r="Q42" s="373"/>
+      <c r="R42" s="373"/>
+      <c r="S42" s="373"/>
+      <c r="T42" s="373"/>
+      <c r="U42" s="370"/>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="70">
         <v>34</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C43" s="80">
         <v>2</v>
@@ -5794,10 +5809,10 @@
       <c r="L43" s="163"/>
       <c r="M43" s="163"/>
       <c r="N43" s="164"/>
-      <c r="O43" s="342"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="162"/>
       <c r="Q43" s="164" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R43" s="258"/>
       <c r="S43" s="259"/>
@@ -5827,7 +5842,7 @@
       <c r="L44" s="166"/>
       <c r="M44" s="166"/>
       <c r="N44" s="167"/>
-      <c r="O44" s="342"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="165"/>
       <c r="Q44" s="167"/>
       <c r="R44" s="254"/>
@@ -5840,7 +5855,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C45" s="80">
         <v>2</v>
@@ -5858,7 +5873,7 @@
       <c r="L45" s="166"/>
       <c r="M45" s="166"/>
       <c r="N45" s="167"/>
-      <c r="O45" s="342"/>
+      <c r="O45" s="354"/>
       <c r="P45" s="165"/>
       <c r="Q45" s="167"/>
       <c r="R45" s="254"/>
@@ -5871,7 +5886,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C46" s="75">
         <v>2</v>
@@ -5889,7 +5904,7 @@
       <c r="L46" s="166"/>
       <c r="M46" s="166"/>
       <c r="N46" s="167"/>
-      <c r="O46" s="342"/>
+      <c r="O46" s="354"/>
       <c r="P46" s="165"/>
       <c r="Q46" s="167"/>
       <c r="R46" s="254"/>
@@ -5902,7 +5917,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C47" s="75">
         <v>2</v>
@@ -5917,17 +5932,17 @@
       <c r="I47" s="166"/>
       <c r="J47" s="166"/>
       <c r="K47" s="178" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L47" s="166"/>
       <c r="M47" s="166"/>
       <c r="N47" s="167"/>
-      <c r="O47" s="342"/>
+      <c r="O47" s="354"/>
       <c r="P47" s="165"/>
       <c r="Q47" s="167"/>
       <c r="R47" s="254"/>
       <c r="S47" s="261" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T47" s="261"/>
       <c r="U47" s="255"/>
@@ -5937,7 +5952,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" s="75">
         <v>2</v>
@@ -5955,7 +5970,7 @@
       <c r="L48" s="166"/>
       <c r="M48" s="166"/>
       <c r="N48" s="167"/>
-      <c r="O48" s="342"/>
+      <c r="O48" s="354"/>
       <c r="P48" s="165"/>
       <c r="Q48" s="167"/>
       <c r="R48" s="254"/>
@@ -5968,13 +5983,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C49" s="99">
         <v>2</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E49" s="168"/>
       <c r="F49" s="169"/>
@@ -5986,7 +6001,7 @@
       <c r="L49" s="169"/>
       <c r="M49" s="169"/>
       <c r="N49" s="170"/>
-      <c r="O49" s="342"/>
+      <c r="O49" s="354"/>
       <c r="P49" s="168"/>
       <c r="Q49" s="170"/>
       <c r="R49" s="262"/>
@@ -5995,61 +6010,61 @@
       <c r="U49" s="264"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="369" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="370"/>
-      <c r="C50" s="370"/>
-      <c r="D50" s="370"/>
-      <c r="E50" s="370"/>
-      <c r="F50" s="370"/>
-      <c r="G50" s="370"/>
-      <c r="H50" s="370"/>
-      <c r="I50" s="370"/>
-      <c r="J50" s="370"/>
-      <c r="K50" s="370"/>
-      <c r="L50" s="370"/>
-      <c r="M50" s="370"/>
-      <c r="N50" s="371"/>
-      <c r="O50" s="342"/>
-      <c r="P50" s="391"/>
-      <c r="Q50" s="392"/>
-      <c r="R50" s="392"/>
-      <c r="S50" s="392"/>
-      <c r="T50" s="392"/>
-      <c r="U50" s="393"/>
+      <c r="A50" s="366" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="367"/>
+      <c r="C50" s="367"/>
+      <c r="D50" s="367"/>
+      <c r="E50" s="367"/>
+      <c r="F50" s="367"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="367"/>
+      <c r="I50" s="367"/>
+      <c r="J50" s="367"/>
+      <c r="K50" s="367"/>
+      <c r="L50" s="367"/>
+      <c r="M50" s="367"/>
+      <c r="N50" s="368"/>
+      <c r="O50" s="354"/>
+      <c r="P50" s="388"/>
+      <c r="Q50" s="389"/>
+      <c r="R50" s="389"/>
+      <c r="S50" s="389"/>
+      <c r="T50" s="389"/>
+      <c r="U50" s="390"/>
     </row>
     <row r="51" spans="1:21" s="241" customFormat="1" ht="32.25">
       <c r="A51" s="235">
         <v>41</v>
       </c>
-      <c r="B51" s="447" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="448">
+      <c r="B51" s="331" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="332">
         <v>2</v>
       </c>
-      <c r="D51" s="449" t="s">
+      <c r="D51" s="333" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="450"/>
-      <c r="F51" s="451"/>
-      <c r="G51" s="451"/>
-      <c r="H51" s="451"/>
-      <c r="I51" s="451"/>
-      <c r="J51" s="451"/>
-      <c r="K51" s="451"/>
-      <c r="L51" s="451"/>
-      <c r="M51" s="451"/>
-      <c r="N51" s="452"/>
-      <c r="O51" s="342"/>
-      <c r="P51" s="453"/>
-      <c r="Q51" s="453"/>
+      <c r="E51" s="334"/>
+      <c r="F51" s="335"/>
+      <c r="G51" s="335"/>
+      <c r="H51" s="335"/>
+      <c r="I51" s="335"/>
+      <c r="J51" s="335"/>
+      <c r="K51" s="335"/>
+      <c r="L51" s="335"/>
+      <c r="M51" s="335"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="354"/>
+      <c r="P51" s="337"/>
+      <c r="Q51" s="337"/>
       <c r="R51" s="280"/>
-      <c r="S51" s="454"/>
+      <c r="S51" s="338"/>
       <c r="T51" s="280"/>
       <c r="U51" s="280" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -6057,13 +6072,13 @@
         <v>42</v>
       </c>
       <c r="B52" s="84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C52" s="86">
         <v>2</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E52" s="165"/>
       <c r="F52" s="166"/>
@@ -6075,7 +6090,7 @@
       <c r="L52" s="166"/>
       <c r="M52" s="166"/>
       <c r="N52" s="167"/>
-      <c r="O52" s="342"/>
+      <c r="O52" s="354"/>
       <c r="P52" s="166"/>
       <c r="Q52" s="166"/>
       <c r="R52" s="261"/>
@@ -6088,7 +6103,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C53" s="85">
         <v>2</v>
@@ -6106,7 +6121,7 @@
       <c r="L53" s="166"/>
       <c r="M53" s="166"/>
       <c r="N53" s="167"/>
-      <c r="O53" s="342"/>
+      <c r="O53" s="354"/>
       <c r="P53" s="166"/>
       <c r="Q53" s="166"/>
       <c r="R53" s="261"/>
@@ -6119,7 +6134,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" s="87">
         <v>2</v>
@@ -6137,7 +6152,7 @@
       <c r="L54" s="166"/>
       <c r="M54" s="166"/>
       <c r="N54" s="167"/>
-      <c r="O54" s="342"/>
+      <c r="O54" s="354"/>
       <c r="P54" s="166"/>
       <c r="Q54" s="166"/>
       <c r="R54" s="261"/>
@@ -6150,7 +6165,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" s="115">
         <v>2</v>
@@ -6168,7 +6183,7 @@
       <c r="L55" s="169"/>
       <c r="M55" s="169"/>
       <c r="N55" s="170"/>
-      <c r="O55" s="342"/>
+      <c r="O55" s="354"/>
       <c r="P55" s="169"/>
       <c r="Q55" s="169"/>
       <c r="R55" s="263"/>
@@ -6178,7 +6193,7 @@
     </row>
     <row r="56" spans="1:21" ht="26.25" customHeight="1">
       <c r="A56" s="130" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B56" s="131"/>
       <c r="C56" s="131"/>
@@ -6220,23 +6235,23 @@
         <v>14</v>
       </c>
       <c r="Q56" s="133" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R56" s="134" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S56" s="143" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T56" s="91"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A57" s="360" t="s">
+      <c r="A57" s="397" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="361"/>
-      <c r="C57" s="361"/>
-      <c r="D57" s="362"/>
+      <c r="B57" s="398"/>
+      <c r="C57" s="398"/>
+      <c r="D57" s="399"/>
       <c r="E57" s="116">
         <v>45077</v>
       </c>
@@ -6291,7 +6306,7 @@
         <v>46</v>
       </c>
       <c r="B58" s="151" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="152">
         <v>3</v>
@@ -6330,7 +6345,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="268" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F59" s="178"/>
       <c r="G59" s="178"/>
@@ -6353,7 +6368,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C60" s="6">
         <v>3</v>
@@ -6383,7 +6398,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C61" s="100">
         <v>3</v>
@@ -6392,7 +6407,7 @@
         <v>19</v>
       </c>
       <c r="E61" s="268" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F61" s="178"/>
       <c r="G61" s="178"/>
@@ -6415,7 +6430,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="155" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C62" s="156">
         <v>3</v>
@@ -6441,35 +6456,35 @@
       <c r="T62" s="270"/>
     </row>
     <row r="63" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A63" s="354" t="s">
+      <c r="A63" s="391" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="355"/>
-      <c r="C63" s="355"/>
-      <c r="D63" s="355"/>
-      <c r="E63" s="355"/>
-      <c r="F63" s="355"/>
-      <c r="G63" s="355"/>
-      <c r="H63" s="355"/>
-      <c r="I63" s="355"/>
-      <c r="J63" s="355"/>
-      <c r="K63" s="355"/>
-      <c r="L63" s="355"/>
-      <c r="M63" s="355"/>
-      <c r="N63" s="355"/>
-      <c r="O63" s="355"/>
-      <c r="P63" s="355"/>
-      <c r="Q63" s="355"/>
-      <c r="R63" s="355"/>
-      <c r="S63" s="355"/>
-      <c r="T63" s="356"/>
+      <c r="B63" s="392"/>
+      <c r="C63" s="392"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="392"/>
+      <c r="F63" s="392"/>
+      <c r="G63" s="392"/>
+      <c r="H63" s="392"/>
+      <c r="I63" s="392"/>
+      <c r="J63" s="392"/>
+      <c r="K63" s="392"/>
+      <c r="L63" s="392"/>
+      <c r="M63" s="392"/>
+      <c r="N63" s="392"/>
+      <c r="O63" s="392"/>
+      <c r="P63" s="392"/>
+      <c r="Q63" s="392"/>
+      <c r="R63" s="392"/>
+      <c r="S63" s="392"/>
+      <c r="T63" s="393"/>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="135">
         <v>51</v>
       </c>
       <c r="B64" s="136" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C64" s="137">
         <v>3</v>
@@ -6499,7 +6514,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" s="141">
         <v>3</v>
@@ -6525,35 +6540,35 @@
       <c r="T65" s="275"/>
     </row>
     <row r="66" spans="1:20" ht="33" customHeight="1">
-      <c r="A66" s="369" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="370"/>
-      <c r="C66" s="370"/>
-      <c r="D66" s="370"/>
-      <c r="E66" s="370"/>
-      <c r="F66" s="370"/>
-      <c r="G66" s="370"/>
-      <c r="H66" s="370"/>
-      <c r="I66" s="370"/>
-      <c r="J66" s="370"/>
-      <c r="K66" s="370"/>
-      <c r="L66" s="370"/>
-      <c r="M66" s="370"/>
-      <c r="N66" s="370"/>
-      <c r="O66" s="370"/>
-      <c r="P66" s="370"/>
-      <c r="Q66" s="370"/>
-      <c r="R66" s="370"/>
-      <c r="S66" s="370"/>
-      <c r="T66" s="371"/>
+      <c r="A66" s="366" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="367"/>
+      <c r="C66" s="367"/>
+      <c r="D66" s="367"/>
+      <c r="E66" s="367"/>
+      <c r="F66" s="367"/>
+      <c r="G66" s="367"/>
+      <c r="H66" s="367"/>
+      <c r="I66" s="367"/>
+      <c r="J66" s="367"/>
+      <c r="K66" s="367"/>
+      <c r="L66" s="367"/>
+      <c r="M66" s="367"/>
+      <c r="N66" s="367"/>
+      <c r="O66" s="367"/>
+      <c r="P66" s="367"/>
+      <c r="Q66" s="367"/>
+      <c r="R66" s="367"/>
+      <c r="S66" s="367"/>
+      <c r="T66" s="368"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="144">
         <v>53</v>
       </c>
       <c r="B67" s="145" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C67" s="146">
         <v>3</v>
@@ -6562,10 +6577,10 @@
         <v>19</v>
       </c>
       <c r="E67" s="129" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F67" s="129" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G67" s="276"/>
       <c r="H67" s="276"/>
@@ -6584,6 +6599,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A63:T63"/>
     <mergeCell ref="A66:T66"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="R23:S23"/>
@@ -6599,8 +6616,6 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="A63:T63"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D5">
@@ -6697,14 +6712,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1">
-      <c r="A1" s="394" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="395" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="395" t="s">
+      <c r="A1" s="406" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="406"/>
+      <c r="C1" s="407" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="407" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -6743,7 +6758,7 @@
       <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="396" t="s">
+      <c r="Q1" s="408" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="18" t="s">
@@ -6754,10 +6769,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A2" s="394"/>
-      <c r="B2" s="394"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
+      <c r="A2" s="406"/>
+      <c r="B2" s="406"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
       <c r="E2" s="12">
         <v>45198</v>
       </c>
@@ -6794,7 +6809,7 @@
       <c r="P2" s="14">
         <v>45275</v>
       </c>
-      <c r="Q2" s="397"/>
+      <c r="Q2" s="409"/>
       <c r="R2" s="20">
         <v>44938</v>
       </c>
@@ -6803,34 +6818,34 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="409" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
-      <c r="H3" s="410"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="410"/>
-      <c r="M3" s="410"/>
-      <c r="N3" s="410"/>
-      <c r="O3" s="410"/>
-      <c r="P3" s="411"/>
-      <c r="Q3" s="397"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="413"/>
+      <c r="A3" s="421" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="422"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="422"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="422"/>
+      <c r="I3" s="422"/>
+      <c r="J3" s="422"/>
+      <c r="K3" s="422"/>
+      <c r="L3" s="422"/>
+      <c r="M3" s="422"/>
+      <c r="N3" s="422"/>
+      <c r="O3" s="422"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="409"/>
+      <c r="R3" s="424"/>
+      <c r="S3" s="425"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="206">
         <v>1</v>
       </c>
       <c r="B4" s="195" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="207">
         <v>1</v>
@@ -6852,7 +6867,7 @@
       <c r="P4" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="397"/>
+      <c r="Q4" s="409"/>
       <c r="R4" s="185"/>
       <c r="S4" s="186"/>
     </row>
@@ -6861,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5" s="166">
         <v>1</v>
@@ -6881,7 +6896,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="27"/>
-      <c r="Q5" s="397"/>
+      <c r="Q5" s="409"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
     </row>
@@ -6890,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="183" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6" s="184">
         <v>1</v>
@@ -6910,7 +6925,7 @@
       <c r="N6" s="183"/>
       <c r="O6" s="183"/>
       <c r="P6" s="198"/>
-      <c r="Q6" s="397"/>
+      <c r="Q6" s="409"/>
       <c r="R6" s="22"/>
       <c r="S6" s="23"/>
     </row>
@@ -6919,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7" s="166">
         <v>1</v>
@@ -6939,7 +6954,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="27"/>
-      <c r="Q7" s="397"/>
+      <c r="Q7" s="409"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
     </row>
@@ -6948,7 +6963,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="183" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" s="184">
         <v>1</v>
@@ -6968,7 +6983,7 @@
       <c r="N8" s="183"/>
       <c r="O8" s="183"/>
       <c r="P8" s="198"/>
-      <c r="Q8" s="397"/>
+      <c r="Q8" s="409"/>
       <c r="R8" s="22"/>
       <c r="S8" s="23"/>
     </row>
@@ -6977,13 +6992,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="166">
         <v>1</v>
       </c>
       <c r="D9" s="167" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="7"/>
@@ -6997,7 +7012,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="27"/>
-      <c r="Q9" s="397"/>
+      <c r="Q9" s="409"/>
       <c r="R9" s="22"/>
       <c r="S9" s="23"/>
     </row>
@@ -7006,7 +7021,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="200" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C10" s="213">
         <v>1</v>
@@ -7026,61 +7041,61 @@
       <c r="N10" s="200"/>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="Q10" s="398"/>
+      <c r="Q10" s="410"/>
       <c r="R10" s="24"/>
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="418"/>
-      <c r="B11" s="419"/>
-      <c r="C11" s="419"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-      <c r="K11" s="419"/>
-      <c r="L11" s="419"/>
-      <c r="M11" s="419"/>
-      <c r="N11" s="419"/>
-      <c r="O11" s="419"/>
-      <c r="P11" s="419"/>
-      <c r="Q11" s="419"/>
-      <c r="R11" s="419"/>
-      <c r="S11" s="419"/>
+      <c r="A11" s="430"/>
+      <c r="B11" s="431"/>
+      <c r="C11" s="431"/>
+      <c r="D11" s="431"/>
+      <c r="E11" s="431"/>
+      <c r="F11" s="431"/>
+      <c r="G11" s="431"/>
+      <c r="H11" s="431"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="431"/>
+      <c r="K11" s="431"/>
+      <c r="L11" s="431"/>
+      <c r="M11" s="431"/>
+      <c r="N11" s="431"/>
+      <c r="O11" s="431"/>
+      <c r="P11" s="431"/>
+      <c r="Q11" s="431"/>
+      <c r="R11" s="431"/>
+      <c r="S11" s="431"/>
     </row>
     <row r="12" spans="1:21" ht="18.75">
-      <c r="A12" s="414" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="415"/>
-      <c r="K12" s="415"/>
-      <c r="L12" s="415"/>
-      <c r="M12" s="415"/>
-      <c r="N12" s="415"/>
-      <c r="O12" s="415"/>
-      <c r="P12" s="415"/>
-      <c r="Q12" s="415"/>
-      <c r="R12" s="416"/>
-      <c r="S12" s="416"/>
-      <c r="T12" s="416"/>
-      <c r="U12" s="417"/>
+      <c r="A12" s="426" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="427"/>
+      <c r="C12" s="427"/>
+      <c r="D12" s="427"/>
+      <c r="E12" s="427"/>
+      <c r="F12" s="427"/>
+      <c r="G12" s="427"/>
+      <c r="H12" s="427"/>
+      <c r="I12" s="427"/>
+      <c r="J12" s="427"/>
+      <c r="K12" s="427"/>
+      <c r="L12" s="427"/>
+      <c r="M12" s="427"/>
+      <c r="N12" s="427"/>
+      <c r="O12" s="427"/>
+      <c r="P12" s="427"/>
+      <c r="Q12" s="427"/>
+      <c r="R12" s="428"/>
+      <c r="S12" s="428"/>
+      <c r="T12" s="428"/>
+      <c r="U12" s="429"/>
     </row>
     <row r="13" spans="1:21" ht="32.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="421"/>
-      <c r="C13" s="421"/>
-      <c r="D13" s="422"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="434"/>
       <c r="E13" s="202" t="s">
         <v>3</v>
       </c>
@@ -7111,7 +7126,7 @@
       <c r="N13" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="426" t="s">
+      <c r="O13" s="438" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="205" t="s">
@@ -7134,10 +7149,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A14" s="423"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="425"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="436"/>
+      <c r="C14" s="436"/>
+      <c r="D14" s="437"/>
       <c r="E14" s="188">
         <v>44952</v>
       </c>
@@ -7168,7 +7183,7 @@
       <c r="N14" s="192">
         <v>45014</v>
       </c>
-      <c r="O14" s="426"/>
+      <c r="O14" s="438"/>
       <c r="P14" s="193">
         <v>45035</v>
       </c>
@@ -7193,7 +7208,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" s="207">
         <v>2</v>
@@ -7211,12 +7226,12 @@
       <c r="L15" s="282"/>
       <c r="M15" s="282"/>
       <c r="N15" s="283" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="427"/>
+        <v>83</v>
+      </c>
+      <c r="O15" s="439"/>
       <c r="P15" s="289"/>
       <c r="Q15" s="290" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R15" s="306"/>
       <c r="S15" s="291"/>
@@ -7228,13 +7243,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16" s="166">
         <v>2</v>
       </c>
       <c r="D16" s="166" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -7246,7 +7261,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="284"/>
-      <c r="O16" s="427"/>
+      <c r="O16" s="439"/>
       <c r="P16" s="292"/>
       <c r="Q16" s="293"/>
       <c r="R16" s="308"/>
@@ -7259,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="183" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C17" s="184">
         <v>2</v>
@@ -7277,7 +7292,7 @@
       <c r="L17" s="285"/>
       <c r="M17" s="285"/>
       <c r="N17" s="286"/>
-      <c r="O17" s="427"/>
+      <c r="O17" s="439"/>
       <c r="P17" s="292"/>
       <c r="Q17" s="293"/>
       <c r="R17" s="308"/>
@@ -7290,13 +7305,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C18" s="166">
         <v>2</v>
       </c>
       <c r="D18" s="166" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7308,7 +7323,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="284"/>
-      <c r="O18" s="427"/>
+      <c r="O18" s="439"/>
       <c r="P18" s="292"/>
       <c r="Q18" s="293"/>
       <c r="R18" s="308"/>
@@ -7321,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="183" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C19" s="184">
         <v>2</v>
@@ -7339,11 +7354,11 @@
       <c r="L19" s="285"/>
       <c r="M19" s="285"/>
       <c r="N19" s="286"/>
-      <c r="O19" s="427"/>
+      <c r="O19" s="439"/>
       <c r="P19" s="296"/>
       <c r="Q19" s="297"/>
       <c r="R19" s="313" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S19" s="294"/>
       <c r="T19" s="294"/>
@@ -7354,7 +7369,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C20" s="166">
         <v>2</v>
@@ -7372,7 +7387,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="284"/>
-      <c r="O20" s="427"/>
+      <c r="O20" s="439"/>
       <c r="P20" s="292"/>
       <c r="Q20" s="293"/>
       <c r="R20" s="308"/>
@@ -7385,7 +7400,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="200" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21" s="213">
         <v>2</v>
@@ -7403,7 +7418,7 @@
       <c r="L21" s="287"/>
       <c r="M21" s="287"/>
       <c r="N21" s="288"/>
-      <c r="O21" s="428"/>
+      <c r="O21" s="440"/>
       <c r="P21" s="298"/>
       <c r="Q21" s="299"/>
       <c r="R21" s="310"/>
@@ -7413,93 +7428,93 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="D22" s="3"/>
-      <c r="T22" s="328" t="s">
-        <v>150</v>
+      <c r="T22" s="340" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T23" s="328"/>
+      <c r="T23" s="340"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T24" s="328"/>
+      <c r="T24" s="340"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T25" s="328"/>
+      <c r="T25" s="340"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T26" s="328"/>
+      <c r="T26" s="340"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T27" s="328"/>
+      <c r="T27" s="340"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T28" s="328"/>
+      <c r="T28" s="340"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T29" s="328"/>
+      <c r="T29" s="340"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1">
-      <c r="T30" s="328"/>
+      <c r="T30" s="340"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3"/>
-      <c r="T31" s="328"/>
+      <c r="T31" s="340"/>
     </row>
     <row r="32" spans="1:21" ht="16.5" thickBot="1">
       <c r="A32" s="3"/>
-      <c r="T32" s="329"/>
+      <c r="T32" s="341"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" thickBot="1">
-      <c r="A33" s="408"/>
-      <c r="B33" s="408"/>
-      <c r="C33" s="408"/>
-      <c r="D33" s="408"/>
-      <c r="E33" s="408"/>
-      <c r="F33" s="408"/>
-      <c r="G33" s="408"/>
-      <c r="H33" s="408"/>
-      <c r="I33" s="408"/>
-      <c r="J33" s="408"/>
-      <c r="K33" s="408"/>
-      <c r="L33" s="408"/>
-      <c r="M33" s="408"/>
-      <c r="N33" s="408"/>
-      <c r="O33" s="408"/>
-      <c r="P33" s="408"/>
-      <c r="Q33" s="408"/>
-      <c r="R33" s="408"/>
-      <c r="S33" s="408"/>
-      <c r="T33" s="408"/>
+      <c r="A33" s="420"/>
+      <c r="B33" s="420"/>
+      <c r="C33" s="420"/>
+      <c r="D33" s="420"/>
+      <c r="E33" s="420"/>
+      <c r="F33" s="420"/>
+      <c r="G33" s="420"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="420"/>
+      <c r="K33" s="420"/>
+      <c r="L33" s="420"/>
+      <c r="M33" s="420"/>
+      <c r="N33" s="420"/>
+      <c r="O33" s="420"/>
+      <c r="P33" s="420"/>
+      <c r="Q33" s="420"/>
+      <c r="R33" s="420"/>
+      <c r="S33" s="420"/>
+      <c r="T33" s="420"/>
     </row>
     <row r="34" spans="1:23" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A34" s="405" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="406"/>
-      <c r="C34" s="406"/>
-      <c r="D34" s="406"/>
-      <c r="E34" s="406"/>
-      <c r="F34" s="406"/>
-      <c r="G34" s="406"/>
-      <c r="H34" s="406"/>
-      <c r="I34" s="406"/>
-      <c r="J34" s="406"/>
-      <c r="K34" s="406"/>
-      <c r="L34" s="406"/>
-      <c r="M34" s="406"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="406"/>
-      <c r="P34" s="406"/>
-      <c r="Q34" s="406"/>
-      <c r="R34" s="406"/>
-      <c r="S34" s="406"/>
-      <c r="T34" s="407"/>
+      <c r="A34" s="417" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="418"/>
+      <c r="C34" s="418"/>
+      <c r="D34" s="418"/>
+      <c r="E34" s="418"/>
+      <c r="F34" s="418"/>
+      <c r="G34" s="418"/>
+      <c r="H34" s="418"/>
+      <c r="I34" s="418"/>
+      <c r="J34" s="418"/>
+      <c r="K34" s="418"/>
+      <c r="L34" s="418"/>
+      <c r="M34" s="418"/>
+      <c r="N34" s="418"/>
+      <c r="O34" s="418"/>
+      <c r="P34" s="418"/>
+      <c r="Q34" s="418"/>
+      <c r="R34" s="418"/>
+      <c r="S34" s="418"/>
+      <c r="T34" s="419"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A35" s="399"/>
-      <c r="B35" s="400"/>
-      <c r="C35" s="400"/>
-      <c r="D35" s="401"/>
+      <c r="A35" s="411"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="412"/>
+      <c r="D35" s="413"/>
       <c r="E35" s="132" t="s">
         <v>3</v>
       </c>
@@ -7537,21 +7552,21 @@
         <v>14</v>
       </c>
       <c r="Q35" s="133" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R35" s="134" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S35" s="143" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T35" s="91"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="402"/>
-      <c r="B36" s="403"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="404"/>
+      <c r="A36" s="414"/>
+      <c r="B36" s="415"/>
+      <c r="C36" s="415"/>
+      <c r="D36" s="416"/>
       <c r="E36" s="217">
         <v>45077</v>
       </c>
@@ -7606,13 +7621,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C37" s="222">
         <v>3</v>
       </c>
       <c r="D37" s="223" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E37" s="148"/>
       <c r="F37" s="148"/>
@@ -7714,22 +7729,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1">
-      <c r="A1" s="430" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="435" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="434" t="s">
+      <c r="A1" s="442" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="443"/>
+      <c r="C1" s="447" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="446" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="432"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="436"/>
-      <c r="D2" s="434"/>
+      <c r="A2" s="444"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="446"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="229"/>
@@ -7744,25 +7759,25 @@
       <c r="D4" s="231"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="437" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="438"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="439"/>
+      <c r="A5" s="449" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="450"/>
+      <c r="C5" s="450"/>
+      <c r="D5" s="451"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="153">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C6" s="224">
         <v>1</v>
       </c>
       <c r="D6" s="182" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -7770,7 +7785,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" s="224">
         <v>1</v>
@@ -7784,37 +7799,37 @@
         <v>3</v>
       </c>
       <c r="B8" s="155" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="225">
         <v>1</v>
       </c>
       <c r="D8" s="226" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="10" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="440" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="441"/>
-      <c r="C11" s="441"/>
-      <c r="D11" s="442"/>
+      <c r="A11" s="452" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="453"/>
+      <c r="C11" s="453"/>
+      <c r="D11" s="454"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="153">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C12" s="224">
         <v>2</v>
       </c>
       <c r="D12" s="182" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -7822,7 +7837,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" s="224">
         <v>2</v>
@@ -7836,13 +7851,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C14" s="224">
         <v>2</v>
       </c>
       <c r="D14" s="227" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -7850,7 +7865,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C15" s="225">
         <v>2</v>
@@ -7860,25 +7875,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="429" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="429"/>
-      <c r="C17" s="429"/>
-      <c r="D17" s="429"/>
+      <c r="A17" s="441" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="441"/>
+      <c r="C17" s="441"/>
+      <c r="D17" s="441"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C18" s="224">
         <v>3</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -7886,13 +7901,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" s="224">
         <v>3</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -7900,7 +7915,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" s="224">
         <v>3</v>

--- a/docs/comp_sub_dates_2023-24_.xlsx
+++ b/docs/comp_sub_dates_2023-24_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF79E07-1A65-4990-B2A8-6E189AC2EE07}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{A443CA52-F39B-4327-AC84-3810679C2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216BF208-7AF4-4135-926E-30FA8722A9D2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -199,6 +199,12 @@
     <t>COM411 Problem Solving Through Programming</t>
   </si>
   <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Software Artefact with Report</t>
+  </si>
+  <si>
     <t>COM412 Intro to Networks and Security</t>
   </si>
   <si>
@@ -208,13 +214,13 @@
     <t>Final Cisco Exam AE1</t>
   </si>
   <si>
+    <t>Final Cisco Skills Exam AE2</t>
+  </si>
+  <si>
     <t>COM413 Network Applications</t>
   </si>
   <si>
     <t>Neville</t>
-  </si>
-  <si>
-    <t>Final Cisco Skills Exam AE2</t>
   </si>
   <si>
     <t xml:space="preserve">COM427 Principles and Methods of Data Analysis  (Apprentice only module) </t>
@@ -337,12 +343,15 @@
     <t>COM612 Internet of Things (UG Option)</t>
   </si>
   <si>
-    <t xml:space="preserve">AE1 Report </t>
+    <t>AE1 Report</t>
   </si>
   <si>
     <t xml:space="preserve">COM613 CyberOps </t>
   </si>
   <si>
+    <t>AE1 Portfolio</t>
+  </si>
+  <si>
     <t>COM615 Network Management</t>
   </si>
   <si>
@@ -406,6 +415,12 @@
     <t>COM414 Routing and Switching</t>
   </si>
   <si>
+    <t>AE1 50% Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE2 50% Skills </t>
+  </si>
+  <si>
     <t>COM522 Threat Intelligence Analysis</t>
   </si>
   <si>
@@ -418,6 +433,12 @@
     <t>COM513 Network Engineering</t>
   </si>
   <si>
+    <t>AE1 50% test</t>
+  </si>
+  <si>
+    <t>AE2 50% Portfolio</t>
+  </si>
+  <si>
     <t>COM514 Research Methods Project</t>
   </si>
   <si>
@@ -457,6 +478,12 @@
     <t>Week 15</t>
   </si>
   <si>
+    <t xml:space="preserve">AE1 MCA </t>
+  </si>
+  <si>
+    <t>AE2 Skills Test</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -496,6 +523,15 @@
     <t>COM712 Networking</t>
   </si>
   <si>
+    <t>AE3 REport</t>
+  </si>
+  <si>
+    <t>AE1 20% Test</t>
+  </si>
+  <si>
+    <t>AE2 30% skills Test</t>
+  </si>
+  <si>
     <t>COM716 Security &amp; Ethical Hacking</t>
   </si>
   <si>
@@ -506,6 +542,9 @@
   </si>
   <si>
     <t>Tomasz</t>
+  </si>
+  <si>
+    <t>AE1 Report (100%)</t>
   </si>
   <si>
     <t>MAA103 Research Methods</t>
@@ -4418,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488AC5A-058D-400E-9940-EA3004BDD6BC}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4432,7 +4471,7 @@
     <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="15" max="15" width="18.625" customWidth="1"/>
     <col min="16" max="16" width="22.5" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.875" customWidth="1"/>
     <col min="20" max="20" width="13.375" customWidth="1"/>
     <col min="21" max="21" width="19.125" customWidth="1"/>
@@ -4613,10 +4652,14 @@
       <c r="L5" s="163"/>
       <c r="M5" s="163"/>
       <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
+      <c r="O5" s="163" t="s">
+        <v>45</v>
+      </c>
       <c r="P5" s="164"/>
       <c r="Q5" s="381"/>
-      <c r="R5" s="171"/>
+      <c r="R5" s="171" t="s">
+        <v>46</v>
+      </c>
       <c r="S5" s="172"/>
     </row>
     <row r="6" spans="1:19">
@@ -4624,13 +4667,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="165"/>
       <c r="F6" s="166"/>
@@ -4646,22 +4689,24 @@
       <c r="P6" s="167"/>
       <c r="Q6" s="381"/>
       <c r="R6" s="326" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="174"/>
+        <v>49</v>
+      </c>
+      <c r="S6" s="174" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="64">
         <v>3</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="165"/>
       <c r="F7" s="166"/>
@@ -4677,22 +4722,20 @@
       <c r="P7" s="167"/>
       <c r="Q7" s="381"/>
       <c r="R7" s="173"/>
-      <c r="S7" s="326" t="s">
-        <v>50</v>
-      </c>
+      <c r="S7" s="326"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="61">
         <v>4</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="68">
         <v>1</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="165"/>
       <c r="F8" s="166"/>
@@ -4715,13 +4758,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="63">
         <v>1</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="165"/>
       <c r="F9" s="166"/>
@@ -4744,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="63">
         <v>1</v>
@@ -4763,7 +4806,7 @@
       <c r="M10" s="166"/>
       <c r="N10" s="166"/>
       <c r="O10" s="234" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="167"/>
       <c r="Q10" s="381"/>
@@ -4775,13 +4818,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="96">
         <v>1</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="168"/>
       <c r="F11" s="169"/>
@@ -4801,7 +4844,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="385" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="386"/>
       <c r="C12" s="386"/>
@@ -4827,13 +4870,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="105">
         <v>1</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" s="243"/>
       <c r="F13" s="177"/>
@@ -4856,13 +4899,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="75">
         <v>1</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="245"/>
       <c r="F14" s="178"/>
@@ -4885,13 +4928,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="75">
         <v>1</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="245"/>
       <c r="F15" s="178"/>
@@ -4914,13 +4957,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="75">
         <v>1</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" s="245"/>
       <c r="F16" s="178"/>
@@ -4943,13 +4986,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="75">
         <v>1</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="245"/>
       <c r="F17" s="178"/>
@@ -4972,7 +5015,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="75">
         <v>1</v>
@@ -5001,13 +5044,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="236" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="237">
         <v>1</v>
       </c>
       <c r="D19" s="238" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="279"/>
       <c r="F19" s="280"/>
@@ -5024,7 +5067,7 @@
       <c r="Q19" s="381"/>
       <c r="R19" s="239"/>
       <c r="S19" s="240" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="16.5">
@@ -5032,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="75">
         <v>1</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="245"/>
       <c r="F20" s="178"/>
@@ -5052,11 +5095,11 @@
       <c r="N20" s="178"/>
       <c r="O20" s="178"/>
       <c r="P20" s="246" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="381"/>
       <c r="R20" s="173" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S20" s="174"/>
     </row>
@@ -5065,13 +5108,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="75">
         <v>1</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E21" s="245"/>
       <c r="F21" s="178"/>
@@ -5080,7 +5123,7 @@
       <c r="I21" s="178"/>
       <c r="J21" s="178"/>
       <c r="K21" s="178" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L21" s="178"/>
       <c r="M21" s="178"/>
@@ -5089,7 +5132,7 @@
       <c r="P21" s="246"/>
       <c r="Q21" s="381"/>
       <c r="R21" s="173" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S21" s="174"/>
     </row>
@@ -5098,13 +5141,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="99">
         <v>1</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="247"/>
       <c r="F22" s="248"/>
@@ -5124,7 +5167,7 @@
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
       <c r="A23" s="382" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" s="383"/>
       <c r="C23" s="383"/>
@@ -5145,7 +5188,7 @@
       <c r="R23" s="371"/>
       <c r="S23" s="372"/>
       <c r="T23" s="377" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="42.75" customHeight="1">
@@ -5153,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="111">
         <v>1</v>
@@ -5169,7 +5212,7 @@
       <c r="J24" s="177"/>
       <c r="K24" s="177"/>
       <c r="L24" s="177" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M24" s="177"/>
       <c r="N24" s="177"/>
@@ -5177,7 +5220,7 @@
       <c r="P24" s="244"/>
       <c r="Q24" s="381"/>
       <c r="R24" s="171" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S24" s="172"/>
       <c r="T24" s="378"/>
@@ -5187,13 +5230,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="102">
         <v>1</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="250"/>
       <c r="F25" s="178"/>
@@ -5208,10 +5251,10 @@
       <c r="O25" s="178"/>
       <c r="P25" s="246"/>
       <c r="Q25" s="381"/>
-      <c r="R25" s="173" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" s="174"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="174" t="s">
+        <v>87</v>
+      </c>
       <c r="T25" s="378"/>
     </row>
     <row r="26" spans="1:20">
@@ -5219,13 +5262,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="102">
         <v>1</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="250"/>
       <c r="F26" s="178"/>
@@ -5240,7 +5283,9 @@
       <c r="O26" s="178"/>
       <c r="P26" s="246"/>
       <c r="Q26" s="381"/>
-      <c r="R26" s="173"/>
+      <c r="R26" s="173" t="s">
+        <v>89</v>
+      </c>
       <c r="S26" s="174"/>
       <c r="T26" s="378"/>
     </row>
@@ -5249,13 +5294,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" s="102">
         <v>1</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E27" s="250"/>
       <c r="F27" s="178"/>
@@ -5279,13 +5324,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" s="103">
         <v>1</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E28" s="250"/>
       <c r="F28" s="178"/>
@@ -5301,7 +5346,7 @@
       <c r="P28" s="246"/>
       <c r="Q28" s="381"/>
       <c r="R28" s="173" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S28" s="174"/>
       <c r="T28" s="378"/>
@@ -5311,13 +5356,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" s="102">
         <v>1</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E29" s="250"/>
       <c r="F29" s="178"/>
@@ -5341,13 +5386,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C30" s="103">
         <v>1</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="250"/>
       <c r="F30" s="178"/>
@@ -5371,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="328" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C31" s="329">
         <v>1</v>
       </c>
       <c r="D31" s="329" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="330"/>
       <c r="F31" s="280"/>
@@ -5394,7 +5439,7 @@
       <c r="Q31" s="381"/>
       <c r="R31" s="279"/>
       <c r="S31" s="281" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T31" s="378"/>
     </row>
@@ -5403,13 +5448,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="103">
         <v>1</v>
       </c>
       <c r="D32" s="107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" s="250"/>
       <c r="F32" s="178"/>
@@ -5433,13 +5478,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="102">
         <v>1</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E33" s="250"/>
       <c r="F33" s="178"/>
@@ -5463,13 +5508,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C34" s="113">
         <v>1</v>
       </c>
       <c r="D34" s="114" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="251"/>
       <c r="F34" s="252"/>
@@ -5490,7 +5535,7 @@
     </row>
     <row r="35" spans="1:21" ht="35.25" customHeight="1">
       <c r="A35" s="391" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B35" s="392"/>
       <c r="C35" s="392"/>
@@ -5544,7 +5589,7 @@
         <v>28</v>
       </c>
       <c r="U35" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1">
@@ -5609,13 +5654,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C37" s="97">
         <v>2</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="243"/>
       <c r="F37" s="177"/>
@@ -5640,13 +5685,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C38" s="63">
         <v>2</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E38" s="245"/>
       <c r="F38" s="178"/>
@@ -5660,7 +5705,7 @@
       <c r="N38" s="246"/>
       <c r="O38" s="354"/>
       <c r="P38" s="242" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q38" s="182"/>
       <c r="R38" s="254"/>
@@ -5673,7 +5718,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="63">
         <v>2</v>
@@ -5704,7 +5749,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" s="63">
         <v>2</v>
@@ -5730,18 +5775,18 @@
       <c r="T40" s="261"/>
       <c r="U40" s="255"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="61">
         <v>33</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="96">
         <v>2</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" s="247"/>
       <c r="F41" s="248"/>
@@ -5757,13 +5802,17 @@
       <c r="P41" s="168"/>
       <c r="Q41" s="170"/>
       <c r="R41" s="262"/>
-      <c r="S41" s="263"/>
-      <c r="T41" s="263"/>
+      <c r="S41" s="263" t="s">
+        <v>111</v>
+      </c>
+      <c r="T41" s="263" t="s">
+        <v>112</v>
+      </c>
       <c r="U41" s="264"/>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="374" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="375"/>
       <c r="C42" s="375"/>
@@ -5791,7 +5840,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C43" s="80">
         <v>2</v>
@@ -5812,7 +5861,7 @@
       <c r="O43" s="354"/>
       <c r="P43" s="162"/>
       <c r="Q43" s="164" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="R43" s="258"/>
       <c r="S43" s="259"/>
@@ -5824,13 +5873,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="75">
         <v>2</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="165"/>
       <c r="F44" s="166"/>
@@ -5855,13 +5904,13 @@
         <v>36</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C45" s="80">
         <v>2</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E45" s="165"/>
       <c r="F45" s="166"/>
@@ -5881,18 +5930,18 @@
       <c r="T45" s="261"/>
       <c r="U45" s="255"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" ht="32.25">
       <c r="A46" s="73">
         <v>37</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C46" s="75">
         <v>2</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46" s="165"/>
       <c r="F46" s="166"/>
@@ -5907,9 +5956,13 @@
       <c r="O46" s="354"/>
       <c r="P46" s="165"/>
       <c r="Q46" s="167"/>
-      <c r="R46" s="254"/>
+      <c r="R46" s="254" t="s">
+        <v>117</v>
+      </c>
       <c r="S46" s="261"/>
-      <c r="T46" s="261"/>
+      <c r="T46" s="261" t="s">
+        <v>118</v>
+      </c>
       <c r="U46" s="255"/>
     </row>
     <row r="47" spans="1:21" ht="48.75">
@@ -5917,7 +5970,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C47" s="75">
         <v>2</v>
@@ -5932,7 +5985,7 @@
       <c r="I47" s="166"/>
       <c r="J47" s="166"/>
       <c r="K47" s="178" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L47" s="166"/>
       <c r="M47" s="166"/>
@@ -5942,7 +5995,7 @@
       <c r="Q47" s="167"/>
       <c r="R47" s="254"/>
       <c r="S47" s="261" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="T47" s="261"/>
       <c r="U47" s="255"/>
@@ -5952,13 +6005,13 @@
         <v>39</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C48" s="75">
         <v>2</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" s="165"/>
       <c r="F48" s="166"/>
@@ -5983,13 +6036,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C49" s="99">
         <v>2</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E49" s="168"/>
       <c r="F49" s="169"/>
@@ -6011,7 +6064,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="366" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="367"/>
       <c r="C50" s="367"/>
@@ -6039,13 +6092,13 @@
         <v>41</v>
       </c>
       <c r="B51" s="331" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C51" s="332">
         <v>2</v>
       </c>
       <c r="D51" s="333" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E51" s="334"/>
       <c r="F51" s="335"/>
@@ -6064,7 +6117,7 @@
       <c r="S51" s="338"/>
       <c r="T51" s="280"/>
       <c r="U51" s="280" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -6072,13 +6125,13 @@
         <v>42</v>
       </c>
       <c r="B52" s="84" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C52" s="86">
         <v>2</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E52" s="165"/>
       <c r="F52" s="166"/>
@@ -6103,7 +6156,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C53" s="85">
         <v>2</v>
@@ -6134,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C54" s="87">
         <v>2</v>
@@ -6165,13 +6218,13 @@
         <v>45</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C55" s="115">
         <v>2</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E55" s="168"/>
       <c r="F55" s="169"/>
@@ -6193,7 +6246,7 @@
     </row>
     <row r="56" spans="1:21" ht="26.25" customHeight="1">
       <c r="A56" s="130" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B56" s="131"/>
       <c r="C56" s="131"/>
@@ -6235,13 +6288,13 @@
         <v>14</v>
       </c>
       <c r="Q56" s="133" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="R56" s="134" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S56" s="143" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="T56" s="91"/>
     </row>
@@ -6301,18 +6354,18 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" ht="32.25">
       <c r="A58" s="150">
         <v>46</v>
       </c>
       <c r="B58" s="151" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C58" s="152">
         <v>3</v>
       </c>
       <c r="D58" s="152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58" s="265"/>
       <c r="F58" s="265"/>
@@ -6325,8 +6378,12 @@
       <c r="M58" s="265"/>
       <c r="N58" s="265"/>
       <c r="O58" s="265"/>
-      <c r="P58" s="265"/>
-      <c r="Q58" s="266"/>
+      <c r="P58" s="265" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q58" s="266" t="s">
+        <v>133</v>
+      </c>
       <c r="R58" s="266"/>
       <c r="S58" s="266"/>
       <c r="T58" s="267"/>
@@ -6336,7 +6393,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" s="101">
         <v>3</v>
@@ -6345,7 +6402,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="268" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F59" s="178"/>
       <c r="G59" s="178"/>
@@ -6368,7 +6425,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C60" s="6">
         <v>3</v>
@@ -6398,7 +6455,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C61" s="100">
         <v>3</v>
@@ -6407,7 +6464,7 @@
         <v>19</v>
       </c>
       <c r="E61" s="268" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F61" s="178"/>
       <c r="G61" s="178"/>
@@ -6430,13 +6487,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="155" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C62" s="156">
         <v>3</v>
       </c>
       <c r="D62" s="157" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E62" s="252"/>
       <c r="F62" s="252"/>
@@ -6457,7 +6514,7 @@
     </row>
     <row r="63" spans="1:21" ht="33.75" customHeight="1">
       <c r="A63" s="391" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="392"/>
       <c r="C63" s="392"/>
@@ -6484,13 +6541,13 @@
         <v>51</v>
       </c>
       <c r="B64" s="136" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C64" s="137">
         <v>3</v>
       </c>
       <c r="D64" s="138" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E64" s="271"/>
       <c r="F64" s="271"/>
@@ -6514,13 +6571,13 @@
         <v>52</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C65" s="141">
         <v>3</v>
       </c>
       <c r="D65" s="142" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -6541,7 +6598,7 @@
     </row>
     <row r="66" spans="1:20" ht="33" customHeight="1">
       <c r="A66" s="366" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="367"/>
       <c r="C66" s="367"/>
@@ -6568,7 +6625,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="145" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C67" s="146">
         <v>3</v>
@@ -6577,10 +6634,10 @@
         <v>19</v>
       </c>
       <c r="E67" s="129" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F67" s="129" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G67" s="276"/>
       <c r="H67" s="276"/>
@@ -6696,8 +6753,8 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -6713,11 +6770,11 @@
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1">
       <c r="A1" s="406" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B1" s="406"/>
       <c r="C1" s="407" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D1" s="407" t="s">
         <v>2</v>
@@ -6819,7 +6876,7 @@
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="421" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" s="422"/>
       <c r="C3" s="422"/>
@@ -6845,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="195" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C4" s="207">
         <v>1</v>
@@ -6876,13 +6933,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C5" s="166">
         <v>1</v>
       </c>
       <c r="D5" s="167" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="7"/>
@@ -6905,13 +6962,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="183" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C6" s="184">
         <v>1</v>
       </c>
       <c r="D6" s="211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="197"/>
       <c r="F6" s="183"/>
@@ -6924,23 +6981,29 @@
       <c r="M6" s="183"/>
       <c r="N6" s="183"/>
       <c r="O6" s="183"/>
-      <c r="P6" s="198"/>
+      <c r="P6" s="198" t="s">
+        <v>147</v>
+      </c>
       <c r="Q6" s="409"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
+      <c r="R6" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="209">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C7" s="166">
         <v>1</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="7"/>
@@ -6963,7 +7026,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="183" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C8" s="184">
         <v>1</v>
@@ -6992,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C9" s="166">
         <v>1</v>
       </c>
       <c r="D9" s="167" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="7"/>
@@ -7010,7 +7073,9 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="409"/>
       <c r="R9" s="22"/>
@@ -7021,13 +7086,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="200" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C10" s="213">
         <v>1</v>
       </c>
       <c r="D10" s="214" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="199"/>
       <c r="F10" s="200"/>
@@ -7068,7 +7133,7 @@
     </row>
     <row r="12" spans="1:21" ht="18.75">
       <c r="A12" s="426" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B12" s="427"/>
       <c r="C12" s="427"/>
@@ -7208,7 +7273,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C15" s="207">
         <v>2</v>
@@ -7226,12 +7291,12 @@
       <c r="L15" s="282"/>
       <c r="M15" s="282"/>
       <c r="N15" s="283" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O15" s="439"/>
       <c r="P15" s="289"/>
       <c r="Q15" s="290" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R15" s="306"/>
       <c r="S15" s="291"/>
@@ -7243,13 +7308,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C16" s="166">
         <v>2</v>
       </c>
       <c r="D16" s="166" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -7274,13 +7339,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="183" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C17" s="184">
         <v>2</v>
       </c>
       <c r="D17" s="184" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="285"/>
       <c r="F17" s="285"/>
@@ -7305,13 +7370,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C18" s="166">
         <v>2</v>
       </c>
       <c r="D18" s="166" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7336,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="183" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C19" s="184">
         <v>2</v>
@@ -7358,7 +7423,7 @@
       <c r="P19" s="296"/>
       <c r="Q19" s="297"/>
       <c r="R19" s="313" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="S19" s="294"/>
       <c r="T19" s="294"/>
@@ -7369,7 +7434,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C20" s="166">
         <v>2</v>
@@ -7400,13 +7465,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="200" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C21" s="213">
         <v>2</v>
       </c>
       <c r="D21" s="213" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="287"/>
       <c r="F21" s="287"/>
@@ -7429,7 +7494,7 @@
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="D22" s="3"/>
       <c r="T22" s="340" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
@@ -7488,7 +7553,7 @@
     </row>
     <row r="34" spans="1:23" ht="26.25" customHeight="1" thickBot="1">
       <c r="A34" s="417" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B34" s="418"/>
       <c r="C34" s="418"/>
@@ -7552,13 +7617,13 @@
         <v>14</v>
       </c>
       <c r="Q35" s="133" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="R35" s="134" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S35" s="143" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="T35" s="91"/>
     </row>
@@ -7621,13 +7686,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C37" s="222">
         <v>3</v>
       </c>
       <c r="D37" s="223" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E37" s="148"/>
       <c r="F37" s="148"/>
@@ -7730,11 +7795,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.1" customHeight="1">
       <c r="A1" s="442" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B1" s="443"/>
       <c r="C1" s="447" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D1" s="446" t="s">
         <v>2</v>
@@ -7760,7 +7825,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="449" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B5" s="450"/>
       <c r="C5" s="450"/>
@@ -7771,13 +7836,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C6" s="224">
         <v>1</v>
       </c>
       <c r="D6" s="182" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -7785,13 +7850,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C7" s="224">
         <v>1</v>
       </c>
       <c r="D7" s="182" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -7799,20 +7864,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="155" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C8" s="225">
         <v>1</v>
       </c>
       <c r="D8" s="226" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="10" spans="1:4" s="232" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="452" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B11" s="453"/>
       <c r="C11" s="453"/>
@@ -7823,13 +7888,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C12" s="224">
         <v>2</v>
       </c>
       <c r="D12" s="182" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -7837,13 +7902,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C13" s="224">
         <v>2</v>
       </c>
       <c r="D13" s="182" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -7851,13 +7916,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C14" s="224">
         <v>2</v>
       </c>
       <c r="D14" s="227" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -7865,18 +7930,18 @@
         <v>8</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C15" s="225">
         <v>2</v>
       </c>
       <c r="D15" s="228" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="441" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B17" s="441"/>
       <c r="C17" s="441"/>
@@ -7887,13 +7952,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C18" s="224">
         <v>3</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -7901,13 +7966,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C19" s="224">
         <v>3</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -7915,13 +7980,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C20" s="224">
         <v>3</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
